--- a/data/hotels_by_city/Denver/Denver_shard_199.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_199.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d83061-Reviews-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Motel-6-Denver-Central-Federal-Boulevard.h996170.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,854 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r586377473-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>83061</t>
+  </si>
+  <si>
+    <t>586377473</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Hookers, drug dealers and mold... O Joy!</t>
+  </si>
+  <si>
+    <t>It’s a place to lay your head for the night. Giving it one star is being generous. There’s mold everywhere in the bathroom and shower. Tv was broken, and WiFi was an extra cost. Motel is in a sketchy part of town. Thought we got a good deal on a room but it was more like a nightmare. Hookers and drug dealers came out like cockroaches at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>It’s a place to lay your head for the night. Giving it one star is being generous. There’s mold everywhere in the bathroom and shower. Tv was broken, and WiFi was an extra cost. Motel is in a sketchy part of town. Thought we got a good deal on a room but it was more like a nightmare. Hookers and drug dealers came out like cockroaches at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r524484181-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524484181</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Check in was a Circus Act, the Motel was the Circus Tent.</t>
+  </si>
+  <si>
+    <t>While I waited in the check out line for almost 30 minutes....
+Several people returned with electronic keys that did not work. The family infront of me had reservations but the customer service reservation desk booked them in the wrong hotel. 
+Linda the front desk lady was quite rude and disconnected with the guests. The family appologised to me for their 20 minute check in process that we all were expierencing. Finaly Linda got some help...well sorta. I was told once in my room I could choose between 2 internet access plans. Once in my room amd ready to get.some work done....the internet was not accessable. I calles the front desk and was told I need to buy a plan at check in...NOT KIDDING, I CANT MAKE THIS UP. 
+I told her she checked me in and told.me I could choose omce in my room, she quickly stated, I will call you back in 5 minutes, then hung up. Never got a call back. I called and Limda amswered, rather than emidiatly help she told me it wasnt her that did it so she wasnt sure what I was told. Linda then told me to come to the front desk, that was the only way to get a code. So I changed from my pajamas back into my clothes and the phone sings.....Guess Who...yup Linda. Suddenly she had an access code. 
+2 codes to be exact, one for my phome...While I waited in the check out line for almost 30 minutes....Several people returned with electronic keys that did not work. The family infront of me had reservations but the customer service reservation desk booked them in the wrong hotel. Linda the front desk lady was quite rude and disconnected with the guests. The family appologised to me for their 20 minute check in process that we all were expierencing. Finaly Linda got some help...well sorta. I was told once in my room I could choose between 2 internet access plans. Once in my room amd ready to get.some work done....the internet was not accessable. I calles the front desk and was told I need to buy a plan at check in...NOT KIDDING, I CANT MAKE THIS UP. I told her she checked me in and told.me I could choose omce in my room, she quickly stated, I will call you back in 5 minutes, then hung up. Never got a call back. I called and Limda amswered, rather than emidiatly help she told me it wasnt her that did it so she wasnt sure what I was told. Linda then told me to come to the front desk, that was the only way to get a code. So I changed from my pajamas back into my clothes and the phone sings.....Guess Who...yup Linda. Suddenly she had an access code. 2 codes to be exact, one for my phome amd one for the computer....neither worked....so She gabe me 2 more...now I was connected....It gets better, the internet stops working....I was waiting to see if I was on Candid Camera. With all that I was goi g to leave the hotel, bit since my dog came with me on this trip I had to stay, all other hotels that allowed pets were booked.Water damage throughout the room, very run down. Advertismemt says updated rooms, I dont think so.Its a Motel 6 and my hopes were not very high to start, but never again will I say at a Motel 6MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>While I waited in the check out line for almost 30 minutes....
+Several people returned with electronic keys that did not work. The family infront of me had reservations but the customer service reservation desk booked them in the wrong hotel. 
+Linda the front desk lady was quite rude and disconnected with the guests. The family appologised to me for their 20 minute check in process that we all were expierencing. Finaly Linda got some help...well sorta. I was told once in my room I could choose between 2 internet access plans. Once in my room amd ready to get.some work done....the internet was not accessable. I calles the front desk and was told I need to buy a plan at check in...NOT KIDDING, I CANT MAKE THIS UP. 
+I told her she checked me in and told.me I could choose omce in my room, she quickly stated, I will call you back in 5 minutes, then hung up. Never got a call back. I called and Limda amswered, rather than emidiatly help she told me it wasnt her that did it so she wasnt sure what I was told. Linda then told me to come to the front desk, that was the only way to get a code. So I changed from my pajamas back into my clothes and the phone sings.....Guess Who...yup Linda. Suddenly she had an access code. 
+2 codes to be exact, one for my phome...While I waited in the check out line for almost 30 minutes....Several people returned with electronic keys that did not work. The family infront of me had reservations but the customer service reservation desk booked them in the wrong hotel. Linda the front desk lady was quite rude and disconnected with the guests. The family appologised to me for their 20 minute check in process that we all were expierencing. Finaly Linda got some help...well sorta. I was told once in my room I could choose between 2 internet access plans. Once in my room amd ready to get.some work done....the internet was not accessable. I calles the front desk and was told I need to buy a plan at check in...NOT KIDDING, I CANT MAKE THIS UP. I told her she checked me in and told.me I could choose omce in my room, she quickly stated, I will call you back in 5 minutes, then hung up. Never got a call back. I called and Limda amswered, rather than emidiatly help she told me it wasnt her that did it so she wasnt sure what I was told. Linda then told me to come to the front desk, that was the only way to get a code. So I changed from my pajamas back into my clothes and the phone sings.....Guess Who...yup Linda. Suddenly she had an access code. 2 codes to be exact, one for my phome amd one for the computer....neither worked....so She gabe me 2 more...now I was connected....It gets better, the internet stops working....I was waiting to see if I was on Candid Camera. With all that I was goi g to leave the hotel, bit since my dog came with me on this trip I had to stay, all other hotels that allowed pets were booked.Water damage throughout the room, very run down. Advertismemt says updated rooms, I dont think so.Its a Motel 6 and my hopes were not very high to start, but never again will I say at a Motel 6More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r520626510-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>520626510</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drive another 15 minutes &amp; spend a little extra somewhere else. </t>
+  </si>
+  <si>
+    <t>We've stayed at this location three times. The third time was the charm! It was a convenience factor but we have found something else better suited to our tastes and needs just a little further down the road for only a mere $20 more. Our experiences at this motel were nothing special but we found a place to sleep for our time in town. Each stay, we found hairs in the bedding and in the shower and bugs either in the shower or on the ceiling. A quick clean up on our part but really shouldn't this been done already. The beds are somewhat comfortable. Definitely not terrible. This is a very basic stay as well. No extras other than a vending machine. No alarm clocks in the rooms. No fridge. No microwave. No coffee maker. Two bars of soap provided. Due to recent renovations the rooms themselves stay fairly clean (hardwood floors). If you stay on an upper level plan on using the stairs. The elevators were out of service and appear to have been for a while. Unfortunately or impression of this place declined each stay and we will not be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We've stayed at this location three times. The third time was the charm! It was a convenience factor but we have found something else better suited to our tastes and needs just a little further down the road for only a mere $20 more. Our experiences at this motel were nothing special but we found a place to sleep for our time in town. Each stay, we found hairs in the bedding and in the shower and bugs either in the shower or on the ceiling. A quick clean up on our part but really shouldn't this been done already. The beds are somewhat comfortable. Definitely not terrible. This is a very basic stay as well. No extras other than a vending machine. No alarm clocks in the rooms. No fridge. No microwave. No coffee maker. Two bars of soap provided. Due to recent renovations the rooms themselves stay fairly clean (hardwood floors). If you stay on an upper level plan on using the stairs. The elevators were out of service and appear to have been for a while. Unfortunately or impression of this place declined each stay and we will not be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r500578068-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>500578068</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Clean room but wifi fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room is clean and acceptable. Just with the fees and taxes you would think that wifi would be free but it's not! In fact they charger you $3.99 for 24 hours. That's not too bad right? The kicker is the $3.99 is per device. Who does that ? Who travels with one device now a days? Especially with the family. Every kid has their own tablet or game or phone. Just another level of corporate greed personified </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r495503563-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>495503563</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>If you paid more than bargain rates, you paid too much.</t>
+  </si>
+  <si>
+    <t>Noisy, unless you get a room on the north side. Bare bones room. TV, bed, ac, and bathroom. No breakfast. It was clean. The  staff was friendly enough. 24 hour security.  Plenty of fast food places within walking distance.  What you would expect, for the price.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r489589792-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>489589792</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Bad location</t>
+  </si>
+  <si>
+    <t>This hotel is basic and clean however the rooms are tiny, bed is tiny and it's in a very very run down area of Denver. If you like being surrounded by nothing except for fast food places and shut down businesses then you might enjoy your stay here. If you are wanting to go out in Denver then spend a bit more and get a hotel in downtown. This place was overpriced and we had to wait until 4pm to check in. The staff were friendly and obviously very busy but the whole experience here was not a good one and we could not wait to leave !</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r427761159-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>427761159</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Dirty beds in 2 seperate rooms, unattentive staff, came and left after 30 minutes.  Beds were full of hair and stains from god knows what. Utterly disgusting.                                                                  Security guard strolling around makes it feel like a shady area.                            No thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Dirty beds in 2 seperate rooms, unattentive staff, came and left after 30 minutes.  Beds were full of hair and stains from god knows what. Utterly disgusting.                                                                  Security guard strolling around makes it feel like a shady area.                            No thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r427464984-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>427464984</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Aweful!!</t>
+  </si>
+  <si>
+    <t>Never been in a hotel where I had to pay for poor internet connection! Bad service. The staff is not helpful at all. The neighbourhood is everything but safe. You should really think it twice before booking any room.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Never been in a hotel where I had to pay for poor internet connection! Bad service. The staff is not helpful at all. The neighbourhood is everything but safe. You should really think it twice before booking any room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r421027825-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>421027825</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Don't leave the light on for me</t>
+  </si>
+  <si>
+    <t>Very dated motel. Room is clean but no amenities. No free Wi-Fi on the premises. You can have it for a "minimal" charge. Not even a bottle of shampoo available. Wow, really?The rooms have a 70's look and feel. They need to get the hotel to 2016 with the Wi-Fi and standard amenities like every other hotel I have stayed in the past 10 days.I would not recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r404733739-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>404733739</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>No laundry service.</t>
+  </si>
+  <si>
+    <t>I don't know what these people are doing here but laundry is not on the list. Sheets smelled like somebody's butt! CDC anyone? Slept in my clothes on top. TV was was going out. The new Motel 6, newly renovated to smell like a butt.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r397377806-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>397377806</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Need improvement</t>
+  </si>
+  <si>
+    <t>The hotel room that we stay had very bad smell.  No hair dryer, no refrigerator, no microwave, and no air ventilation in bathroom.  It's not good area to stay if you come with family.  The only thing I like is a lot different foods and oriental food store you can find in this area.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r393757722-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>393757722</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Worst staff ever</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a week while waiting for our apartment to be ready. While the room was pretty nice the staff at the hotel was horrid. The Spanish lady who works morning was rude to my husband three times as well as an elderly lady the third day we were there. Since we checked in and was using a third party site to earn towards free nights we used hotels.com instead of just paying them. The third day we were rudely told to quit cause it causes a bobble account that they have to fix. I guess the game she was playing on her phone was more important then the two minutes worth of clicking she had to preform. Then one night my husband had an emergency call and was gone from 2 a.m. to 645 and we wound up sleeping in. Since we were told to come to the office instead of using our app we woke up about 1120 and my husband went down about 10 minutes later. The same rude lady told my husband  if we were late again we would be kicked out? Well if we were doing it our way it would have been done at 6 a.m. Then to top it all off they came to check our smoke detector and the lady stood on our bed which was rude but hey she was short. She checked it and the...My husband and I stayed here for a week while waiting for our apartment to be ready. While the room was pretty nice the staff at the hotel was horrid. The Spanish lady who works morning was rude to my husband three times as well as an elderly lady the third day we were there. Since we checked in and was using a third party site to earn towards free nights we used hotels.com instead of just paying them. The third day we were rudely told to quit cause it causes a bobble account that they have to fix. I guess the game she was playing on her phone was more important then the two minutes worth of clicking she had to preform. Then one night my husband had an emergency call and was gone from 2 a.m. to 645 and we wound up sleeping in. Since we were told to come to the office instead of using our app we woke up about 1120 and my husband went down about 10 minutes later. The same rude lady told my husband  if we were late again we would be kicked out? Well if we were doing it our way it would have been done at 6 a.m. Then to top it all off they came to check our smoke detector and the lady stood on our bed which was rude but hey she was short. She checked it and the noise  made our cat freak out. Since we have two of them when one isn't happy neither is the other. So she laughed and proceeded to do it again and laugh. We were by the freeway and there was a quarter inch gap at the bottom of the door so the noise was terrible. We had to get extra towels and put at the bottom so we could sleep without hearing it. While the noise was lowered it wasn't completely gone. There are armed guards there that make you feel like your in a crime area. Finally to make things worse we found a pair of dirty panties stuck between the wall and the box spring and I was done. We told housekeeping everyday that we didn't need cleaning as our cats aren't very nice to strangers. I was given a broom and towels when I asked but when I changed our sheets I took the blanket and sheets down to exchange. I was told I couldn't have a blanket because You can only have one. When I explained I had thrown my down to be cleaned I was told they would have to wash mine and to come back. This got me to thinking that a few times while smoking downstairs I watched the maids change the sheets and use the same top blanket that had been used by the previous nights guest. We didn't go back for a blanket we bought our own. To have the maid stand of a new comforter set that was bright white really pissed me off.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a week while waiting for our apartment to be ready. While the room was pretty nice the staff at the hotel was horrid. The Spanish lady who works morning was rude to my husband three times as well as an elderly lady the third day we were there. Since we checked in and was using a third party site to earn towards free nights we used hotels.com instead of just paying them. The third day we were rudely told to quit cause it causes a bobble account that they have to fix. I guess the game she was playing on her phone was more important then the two minutes worth of clicking she had to preform. Then one night my husband had an emergency call and was gone from 2 a.m. to 645 and we wound up sleeping in. Since we were told to come to the office instead of using our app we woke up about 1120 and my husband went down about 10 minutes later. The same rude lady told my husband  if we were late again we would be kicked out? Well if we were doing it our way it would have been done at 6 a.m. Then to top it all off they came to check our smoke detector and the lady stood on our bed which was rude but hey she was short. She checked it and the...My husband and I stayed here for a week while waiting for our apartment to be ready. While the room was pretty nice the staff at the hotel was horrid. The Spanish lady who works morning was rude to my husband three times as well as an elderly lady the third day we were there. Since we checked in and was using a third party site to earn towards free nights we used hotels.com instead of just paying them. The third day we were rudely told to quit cause it causes a bobble account that they have to fix. I guess the game she was playing on her phone was more important then the two minutes worth of clicking she had to preform. Then one night my husband had an emergency call and was gone from 2 a.m. to 645 and we wound up sleeping in. Since we were told to come to the office instead of using our app we woke up about 1120 and my husband went down about 10 minutes later. The same rude lady told my husband  if we were late again we would be kicked out? Well if we were doing it our way it would have been done at 6 a.m. Then to top it all off they came to check our smoke detector and the lady stood on our bed which was rude but hey she was short. She checked it and the noise  made our cat freak out. Since we have two of them when one isn't happy neither is the other. So she laughed and proceeded to do it again and laugh. We were by the freeway and there was a quarter inch gap at the bottom of the door so the noise was terrible. We had to get extra towels and put at the bottom so we could sleep without hearing it. While the noise was lowered it wasn't completely gone. There are armed guards there that make you feel like your in a crime area. Finally to make things worse we found a pair of dirty panties stuck between the wall and the box spring and I was done. We told housekeeping everyday that we didn't need cleaning as our cats aren't very nice to strangers. I was given a broom and towels when I asked but when I changed our sheets I took the blanket and sheets down to exchange. I was told I couldn't have a blanket because You can only have one. When I explained I had thrown my down to be cleaned I was told they would have to wash mine and to come back. This got me to thinking that a few times while smoking downstairs I watched the maids change the sheets and use the same top blanket that had been used by the previous nights guest. We didn't go back for a blanket we bought our own. To have the maid stand of a new comforter set that was bright white really pissed me off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r387620566-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>387620566</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Don't believe the bad reviews</t>
+  </si>
+  <si>
+    <t>The Motel 6 on Federal Blvd was not my first pick for a four night stay in Denver but when every hotel was sold out it became my only option. It could not have worked out better. I arrived downtown Denver on a Saturday evening at Union Station. I quickly found the 52 bus that would take me within a block of this motel. I found the check in to be very simple and the staff was very attentive. The room was $78/night. You can't beat that. I found the room to be very clean. I really liked the remodel. I had zero problems with the room, street noise, loud neighbors, nothing. It was one of the better motel stays that I have had. Anyone who gives a bad review to this motel must have incredibly high standards for an interstate motel. Thank you for a pleasant stay and when in Denver for business I know exactly where I will be staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Motel 6 on Federal Blvd was not my first pick for a four night stay in Denver but when every hotel was sold out it became my only option. It could not have worked out better. I arrived downtown Denver on a Saturday evening at Union Station. I quickly found the 52 bus that would take me within a block of this motel. I found the check in to be very simple and the staff was very attentive. The room was $78/night. You can't beat that. I found the room to be very clean. I really liked the remodel. I had zero problems with the room, street noise, loud neighbors, nothing. It was one of the better motel stays that I have had. Anyone who gives a bad review to this motel must have incredibly high standards for an interstate motel. Thank you for a pleasant stay and when in Denver for business I know exactly where I will be staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r378152232-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>378152232</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>Excellent staff - Very friendly and helpful. Thank you for the lovely room and arranging a trip to the Rockies. Please ask for the newly renovated rooms. We stayed with our family and enjoyed our trip to Denver. Ample parking space available as well. love the location.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r368734813-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>368734813</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>You (don't) get what you pay for</t>
+  </si>
+  <si>
+    <t>Arrived at the hotel after 6:00 to find that our credit card had already been charged a full rate, and not the senior rate, and then were told they couldn't change it. We were going to be there three more nights, but she wouldn't give the senior rate for any of the nights because only one of us was a senior and the room had been booked in the non-seniors name. We also were turned off by their policy of making any visitors (our son) register at the desk - for security reasons (?). The room would have been livable, but there was no shampoo or other toiletries, no kleenex, no clock, no wifi, not a scrap of paper or pen, nothing but spartan. That, combined with the bad attitude of the person who checked us in, soured us on ever trying a Motel 6 again. We stayed the first night (because we had already been charged) but cancelled the rest of the nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Arrived at the hotel after 6:00 to find that our credit card had already been charged a full rate, and not the senior rate, and then were told they couldn't change it. We were going to be there three more nights, but she wouldn't give the senior rate for any of the nights because only one of us was a senior and the room had been booked in the non-seniors name. We also were turned off by their policy of making any visitors (our son) register at the desk - for security reasons (?). The room would have been livable, but there was no shampoo or other toiletries, no kleenex, no clock, no wifi, not a scrap of paper or pen, nothing but spartan. That, combined with the bad attitude of the person who checked us in, soured us on ever trying a Motel 6 again. We stayed the first night (because we had already been charged) but cancelled the rest of the nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r325565709-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>325565709</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Bad service and filled with liars at the front desk</t>
+  </si>
+  <si>
+    <t>My advice is never stay here. In fact if your staying here now, get a refund and check out. Boycott them because they discriminate, they don't care and they lie. They will go at all costs to make your trip miserable. They even went as far to lie to my husband about giving him a refund after they called the police and had us kicked out for asking them a question about why some of their policies have suddenly changed. Apparently now they also have this new policy were people have a right to go in your rooms and inspect it. Sense when is this okay to look through people's personal property without their permission. 
+He even told them, "No maid service." And they come in, make only ONE bed, they don't sweep or take out the trash. Now he has stuff missing on top of it and they wanna know why he's mad? Makes sense to me if it were up to me they would refund us for the entire three days we stayed there not just one day which they still have not refunded yet because they lied about that so far too.
+They are not even worth the price. They have no amenities like a Microwave, I could care less about their wifi some people don't have it. And they even used the excuse, "We smoked in the room." As their excuse for throwing us out. Even...My advice is never stay here. In fact if your staying here now, get a refund and check out. Boycott them because they discriminate, they don't care and they lie. They will go at all costs to make your trip miserable. They even went as far to lie to my husband about giving him a refund after they called the police and had us kicked out for asking them a question about why some of their policies have suddenly changed. Apparently now they also have this new policy were people have a right to go in your rooms and inspect it. Sense when is this okay to look through people's personal property without their permission. He even told them, "No maid service." And they come in, make only ONE bed, they don't sweep or take out the trash. Now he has stuff missing on top of it and they wanna know why he's mad? Makes sense to me if it were up to me they would refund us for the entire three days we stayed there not just one day which they still have not refunded yet because they lied about that so far too.They are not even worth the price. They have no amenities like a Microwave, I could care less about their wifi some people don't have it. And they even used the excuse, "We smoked in the room." As their excuse for throwing us out. Even though you could check the room and see the alarm was never set off, and we even went out to the smoking area to smoke our cigarettes. If corporates reading this now, please have this staff fired before we decide to take legal action.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>My advice is never stay here. In fact if your staying here now, get a refund and check out. Boycott them because they discriminate, they don't care and they lie. They will go at all costs to make your trip miserable. They even went as far to lie to my husband about giving him a refund after they called the police and had us kicked out for asking them a question about why some of their policies have suddenly changed. Apparently now they also have this new policy were people have a right to go in your rooms and inspect it. Sense when is this okay to look through people's personal property without their permission. 
+He even told them, "No maid service." And they come in, make only ONE bed, they don't sweep or take out the trash. Now he has stuff missing on top of it and they wanna know why he's mad? Makes sense to me if it were up to me they would refund us for the entire three days we stayed there not just one day which they still have not refunded yet because they lied about that so far too.
+They are not even worth the price. They have no amenities like a Microwave, I could care less about their wifi some people don't have it. And they even used the excuse, "We smoked in the room." As their excuse for throwing us out. Even...My advice is never stay here. In fact if your staying here now, get a refund and check out. Boycott them because they discriminate, they don't care and they lie. They will go at all costs to make your trip miserable. They even went as far to lie to my husband about giving him a refund after they called the police and had us kicked out for asking them a question about why some of their policies have suddenly changed. Apparently now they also have this new policy were people have a right to go in your rooms and inspect it. Sense when is this okay to look through people's personal property without their permission. He even told them, "No maid service." And they come in, make only ONE bed, they don't sweep or take out the trash. Now he has stuff missing on top of it and they wanna know why he's mad? Makes sense to me if it were up to me they would refund us for the entire three days we stayed there not just one day which they still have not refunded yet because they lied about that so far too.They are not even worth the price. They have no amenities like a Microwave, I could care less about their wifi some people don't have it. And they even used the excuse, "We smoked in the room." As their excuse for throwing us out. Even though you could check the room and see the alarm was never set off, and we even went out to the smoking area to smoke our cigarettes. If corporates reading this now, please have this staff fired before we decide to take legal action.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r316996483-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>316996483</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Eh</t>
+  </si>
+  <si>
+    <t>Don't expect to receive what you request. Rude employees, security strolling around evokes a prison feel, wi-fi sucks and the bedding had holes galore.It'll do for a night and you'll be relatively comfortable physically, but probably not spiritually ... (like staying with a miserable but stable half of your divorced parents over the summer when you're 12). Enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Don't expect to receive what you request. Rude employees, security strolling around evokes a prison feel, wi-fi sucks and the bedding had holes galore.It'll do for a night and you'll be relatively comfortable physically, but probably not spiritually ... (like staying with a miserable but stable half of your divorced parents over the summer when you're 12). Enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r299366824-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>299366824</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>This Motel 6 is located close to I-70 which means there is a lot of road noise.  A very basic motel.  They offer paid WiFi, but could never connect.  The staff tried to help and called the 800 number, but it would not work.  Quite a few restaurants in the area.  I will probably not stay here again, so I would not recommend it.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r277107194-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>277107194</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Basics done right</t>
+  </si>
+  <si>
+    <t>On the surface this appeared to be a ordinary urban Motel 6. Busy, frequented by travelling families on a budget, contract worker lodging and emergency housing for disaster victims.  I was skeptical about the cleanliness and security based on past experiences in other locations.  
+I was pleasantly surprised by my immaculately clean room, comfortable bed, and visible night security. The recently renovated room was pleasantly decorated using easily maintained fixtures and furnishings and materials. In addition to the usual furnishings was a nice worktable that functioned well as a computer desk whether I sat on a chair or in bed. The 24 hour diner across the parking lot offered great sit-down meals, while the adjacent fast food restaurant filled our carry-out needs without getting in the car.  The staff was always friendly and helpful.  The property is pet friendly as well with a generous, out of the way dog-potty area
+An inexpensive, clean, functional room means a lot to me but some areas were a bit too basic.  As is standard nowadays was morning coffee in the lobby, and thankfully available very early.  I would expect some minimal food to go with it, even packaged goods for sale $1 or less,  Since there is no refrigerators or microwaves in the rooms, a microwave should at least be available in the lobby for tea-drinkers or to heat food to carry back to one's room. I understand not providing shampoo etc in...On the surface this appeared to be a ordinary urban Motel 6. Busy, frequented by travelling families on a budget, contract worker lodging and emergency housing for disaster victims.  I was skeptical about the cleanliness and security based on past experiences in other locations.  I was pleasantly surprised by my immaculately clean room, comfortable bed, and visible night security. The recently renovated room was pleasantly decorated using easily maintained fixtures and furnishings and materials. In addition to the usual furnishings was a nice worktable that functioned well as a computer desk whether I sat on a chair or in bed. The 24 hour diner across the parking lot offered great sit-down meals, while the adjacent fast food restaurant filled our carry-out needs without getting in the car.  The staff was always friendly and helpful.  The property is pet friendly as well with a generous, out of the way dog-potty areaAn inexpensive, clean, functional room means a lot to me but some areas were a bit too basic.  As is standard nowadays was morning coffee in the lobby, and thankfully available very early.  I would expect some minimal food to go with it, even packaged goods for sale $1 or less,  Since there is no refrigerators or microwaves in the rooms, a microwave should at least be available in the lobby for tea-drinkers or to heat food to carry back to one's room. I understand not providing shampoo etc in the rooms but amenities should be available at the desk whether they be free or a small charge.  I was there for a 5 days.  The maid service kept the room spotless, but failed to replace water cups or toilet paper, needed to request more.  All in all it was a good stay.  The convenient location was mere minutes from downtown by a number of routes.  At the end of a busy day it was refreshing to collapse in the clean room for a good nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>On the surface this appeared to be a ordinary urban Motel 6. Busy, frequented by travelling families on a budget, contract worker lodging and emergency housing for disaster victims.  I was skeptical about the cleanliness and security based on past experiences in other locations.  
+I was pleasantly surprised by my immaculately clean room, comfortable bed, and visible night security. The recently renovated room was pleasantly decorated using easily maintained fixtures and furnishings and materials. In addition to the usual furnishings was a nice worktable that functioned well as a computer desk whether I sat on a chair or in bed. The 24 hour diner across the parking lot offered great sit-down meals, while the adjacent fast food restaurant filled our carry-out needs without getting in the car.  The staff was always friendly and helpful.  The property is pet friendly as well with a generous, out of the way dog-potty area
+An inexpensive, clean, functional room means a lot to me but some areas were a bit too basic.  As is standard nowadays was morning coffee in the lobby, and thankfully available very early.  I would expect some minimal food to go with it, even packaged goods for sale $1 or less,  Since there is no refrigerators or microwaves in the rooms, a microwave should at least be available in the lobby for tea-drinkers or to heat food to carry back to one's room. I understand not providing shampoo etc in...On the surface this appeared to be a ordinary urban Motel 6. Busy, frequented by travelling families on a budget, contract worker lodging and emergency housing for disaster victims.  I was skeptical about the cleanliness and security based on past experiences in other locations.  I was pleasantly surprised by my immaculately clean room, comfortable bed, and visible night security. The recently renovated room was pleasantly decorated using easily maintained fixtures and furnishings and materials. In addition to the usual furnishings was a nice worktable that functioned well as a computer desk whether I sat on a chair or in bed. The 24 hour diner across the parking lot offered great sit-down meals, while the adjacent fast food restaurant filled our carry-out needs without getting in the car.  The staff was always friendly and helpful.  The property is pet friendly as well with a generous, out of the way dog-potty areaAn inexpensive, clean, functional room means a lot to me but some areas were a bit too basic.  As is standard nowadays was morning coffee in the lobby, and thankfully available very early.  I would expect some minimal food to go with it, even packaged goods for sale $1 or less,  Since there is no refrigerators or microwaves in the rooms, a microwave should at least be available in the lobby for tea-drinkers or to heat food to carry back to one's room. I understand not providing shampoo etc in the rooms but amenities should be available at the desk whether they be free or a small charge.  I was there for a 5 days.  The maid service kept the room spotless, but failed to replace water cups or toilet paper, needed to request more.  All in all it was a good stay.  The convenient location was mere minutes from downtown by a number of routes.  At the end of a busy day it was refreshing to collapse in the clean room for a good nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r262488102-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>262488102</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>The property is currently under renovation and we were lucky enough to get one of the freshly remodeled rooms. They are very basic rooms with no fancy extras. That being said, the room was very clean and the beds are a comfortable place to lay your head and get a good night's sleep.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r262260468-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>262260468</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Crappy</t>
+  </si>
+  <si>
+    <t>Dirty carpet.  Curtains falling off windows. Holes in the bathroom door and holes in bathroom walls. Yuck yuck. Will not stay at Motel 6 again. Only good part (sorta) was there was a security guard that patrolled the grounds at night, which made us feel better about our car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r229669938-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229669938</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Pretty terrible</t>
+  </si>
+  <si>
+    <t>This motel is very scruffy and a disgrace to the chain. The sheets on my bed were wet. A woman in the car park asked me if she had anything I needed. Presumably offering me drugs. However, the rooms are gradually being refurbished so hopefully things will improve. Normally, Motel 6 is good value and adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>This motel is very scruffy and a disgrace to the chain. The sheets on my bed were wet. A woman in the car park asked me if she had anything I needed. Presumably offering me drugs. However, the rooms are gradually being refurbished so hopefully things will improve. Normally, Motel 6 is good value and adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r229523675-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229523675</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place should be burned to the ground. </t>
+  </si>
+  <si>
+    <t>My non smoking room STANK of cigarette  and there was an ashtray on the bedside table flipped upside down with a no smoking sticker on the bottom!  The beds were awful and the lady working the check in counter was rude. The clientele we saw looked like they live there as if it was a halfway house.Unfortunately,  I couldn't get my money back as I reserved over the phone.  I will be contacting the head office of motel 6 in the morning. To complain officially.  This place was just missing cockroaches.DONT STAY HERE, EVER!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2014</t>
+  </si>
+  <si>
+    <t>My non smoking room STANK of cigarette  and there was an ashtray on the bedside table flipped upside down with a no smoking sticker on the bottom!  The beds were awful and the lady working the check in counter was rude. The clientele we saw looked like they live there as if it was a halfway house.Unfortunately,  I couldn't get my money back as I reserved over the phone.  I will be contacting the head office of motel 6 in the morning. To complain officially.  This place was just missing cockroaches.DONT STAY HERE, EVER!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r229517817-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229517817</t>
+  </si>
+  <si>
+    <t>2 Star, but very affordable.</t>
+  </si>
+  <si>
+    <t>When we stayed here, this motel was pretty full. Being cost conscious, and budgeting traveling USA for a month on $100/day, it is always good to find a serviceable acceptable hotel for $40/nt. This being our criteria, I gotta say this motel was pretty good. It's a little tired, and didn't have breakfast, but it did provide coffee, a laundry, fridge and microwave. You sure could do a lot worse for $40/nt., and we would stay here again.Oh, the other thing is that it is a ways outta town, but the freeways get you here pretty quick. Maybe a good thing, as a lot of people in Denver proper seem to be somewhat strange.....maybe different is a better description....MoreShow less</t>
+  </si>
+  <si>
+    <t>When we stayed here, this motel was pretty full. Being cost conscious, and budgeting traveling USA for a month on $100/day, it is always good to find a serviceable acceptable hotel for $40/nt. This being our criteria, I gotta say this motel was pretty good. It's a little tired, and didn't have breakfast, but it did provide coffee, a laundry, fridge and microwave. You sure could do a lot worse for $40/nt., and we would stay here again.Oh, the other thing is that it is a ways outta town, but the freeways get you here pretty quick. Maybe a good thing, as a lot of people in Denver proper seem to be somewhat strange.....maybe different is a better description....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r221989652-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>221989652</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Worst motel I have ever experienced</t>
+  </si>
+  <si>
+    <t>First the motel rooms were not even ready to 'rent' for the night at 4:00 pm. Had to make a reservation to come back an hour later. Was supposed to be in a NON-smoking room, it reeked of cigarette smoke and every other room around us had smokers in them smoking on the balcony. There was black, slimey muck coming out of the bathtub drain. The bed was hard and uncomfortable. There were transients, bums and tweekers all around the premises. The other 'guests' looked as if they had taken up residence and were loitering all over the place. Not to mention that the 'guests' were extremely obnoxious and screamed and yelled through the night. DO NOT stay here if you expect a decent room with peace and quiet!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>First the motel rooms were not even ready to 'rent' for the night at 4:00 pm. Had to make a reservation to come back an hour later. Was supposed to be in a NON-smoking room, it reeked of cigarette smoke and every other room around us had smokers in them smoking on the balcony. There was black, slimey muck coming out of the bathtub drain. The bed was hard and uncomfortable. There were transients, bums and tweekers all around the premises. The other 'guests' looked as if they had taken up residence and were loitering all over the place. Not to mention that the 'guests' were extremely obnoxious and screamed and yelled through the night. DO NOT stay here if you expect a decent room with peace and quiet!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r219841331-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>219841331</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Terrible all around</t>
+  </si>
+  <si>
+    <t>I travel for work a lot and I'll say this motel is by far the worst and I've stayed in hotels that have prostitution rings and drug deals being held out of them. The service is terrible the employees are extremely rude and lie to customers faces, I saw that happen personally. The only good thing I have to say about this place is at least their housekeeping staff is honest I haven't had one thing come up missing, but that's not worth being treated like a second class citizen. Avoid avoid avoid would NOT suggest it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r219580412-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>219580412</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Pathetic Beyond Words</t>
+  </si>
+  <si>
+    <t>We went to reserve a room and got told it would be a few hours before the room would be done. So we didnt care cuz we needed to get shopping done at the mall. So we did our shopping, came back 4 hours later and the guy at the front said the room wasnt ready. We already had a baby asleep in the back of our car and wanted him to be in a bed to sleep. We were both PISSED and disappointed. DONT STAY HERE!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r210415451-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>210415451</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Noo way</t>
+  </si>
+  <si>
+    <t>As a young woman travelling alone I would not recommend stopping at this motel to anyone. The room was clean enough but the place felt extremely unsafe, to the point where a cab driver didn't want to stop outside reception for more than a minute. If you like hookers, and burger king, loud motorways, drug addicts, kids running loose, and creeps knocking on your door then fine, but if not then this is arguably the was worst motel I've ever been too. I was so scared by the toothless man pacing up and down outside my window I left in the middle of the night. Plus I got charged way too much when I checked in. I wish I had read the reviews beforehand, this place is dangerous!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>As a young woman travelling alone I would not recommend stopping at this motel to anyone. The room was clean enough but the place felt extremely unsafe, to the point where a cab driver didn't want to stop outside reception for more than a minute. If you like hookers, and burger king, loud motorways, drug addicts, kids running loose, and creeps knocking on your door then fine, but if not then this is arguably the was worst motel I've ever been too. I was so scared by the toothless man pacing up and down outside my window I left in the middle of the night. Plus I got charged way too much when I checked in. I wish I had read the reviews beforehand, this place is dangerous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r209810736-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>209810736</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Motel needs work</t>
+  </si>
+  <si>
+    <t>Dirty floors, beds were old, mattresses were older...sheets were paper thin.  Pool was broken.  The bathroom sink looked new.  Plenty of hot water and supplies.  Shower drain was very slow.   Staff was nice and we had plenty of ice, but we will not be staying here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r206674352-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>206674352</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Gross!! Filthy!! Horrible!</t>
+  </si>
+  <si>
+    <t>This is hands down the nastiest hotel we have ever checked into...they charge you up front and then send you to your crime lab lovers dream room! Wall black, curtains black with dirt, pubic hair on the sink, blood, yes blood dried onto of the dirt covered walls. The light switches were black with dirt, non smoking rooms had all been heavily smoked in and the worst customer service from not one but 3 employees and a manager. We drove 900 miles just to pack up and leave, we drove another 50 miles to not sleep in filth and among tons of prostitutes and druggies. KEEP DRIVING!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r171127726-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>171127726</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Won't do this one again</t>
+  </si>
+  <si>
+    <t>Wanted to be close to Denver Zoo and Airport so reserved online but that was a mistakePolice loping for someone when Iwe checked in and parking lot was trashed as well as the rest of the property and kids unsupervised and running amok in the parking lot and hallways. Room was clean but towels could have used a bit if bleachMoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Wanted to be close to Denver Zoo and Airport so reserved online but that was a mistakePolice loping for someone when Iwe checked in and parking lot was trashed as well as the rest of the property and kids unsupervised and running amok in the parking lot and hallways. Room was clean but towels could have used a bit if bleachMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r162866756-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>162866756</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>This review might save you some money.</t>
+  </si>
+  <si>
+    <t>If the opinions below do not bother you, then you are about to save a ton of money during your stay in Denver. Girlfriend and I needed to kill time before our apartment came available, and what a mistake this place was.
+1) If you’re generally not concerned with anything, including breathing (gnats in the room, wouldn’t want to inhale one) – then you just might have found your home away from home! 
+2) I like semi-firm beds. You know those TV commercials where someone is jumping on one end of a bed, and a full glass of wine is upright on the other end of the bed and it doesn't spill? That’s this bed. No, not the expensive sleep-aid memory foam kind – the rock hard, almost exposed springs, camping air cushions or egg-crate foam out of a dumpster have more comfort than this brick…that kind…but my girlfriend stepped on it and I didn’t move so its technically kinda’ like that commercial.    
+3) Do you walk in to truck stop bathrooms barefoot? If so, you’ll be fine here. There’s no telling what has soaked in to the ground in these rooms.
+4) If hard narcotics are your thing, by all means book a room here. I suspect they are in the vicinity (my opinion in this open forum and I’m a good judge).* 
+5) Sometimes we all need idle time where our mind can wander, and if that’s you...If the opinions below do not bother you, then you are about to save a ton of money during your stay in Denver. Girlfriend and I needed to kill time before our apartment came available, and what a mistake this place was.1) If you’re generally not concerned with anything, including breathing (gnats in the room, wouldn’t want to inhale one) – then you just might have found your home away from home! 2) I like semi-firm beds. You know those TV commercials where someone is jumping on one end of a bed, and a full glass of wine is upright on the other end of the bed and it doesn't spill? That’s this bed. No, not the expensive sleep-aid memory foam kind – the rock hard, almost exposed springs, camping air cushions or egg-crate foam out of a dumpster have more comfort than this brick…that kind…but my girlfriend stepped on it and I didn’t move so its technically kinda’ like that commercial.    3) Do you walk in to truck stop bathrooms barefoot? If so, you’ll be fine here. There’s no telling what has soaked in to the ground in these rooms.4) If hard narcotics are your thing, by all means book a room here. I suspect they are in the vicinity (my opinion in this open forum and I’m a good judge).* 5) Sometimes we all need idle time where our mind can wander, and if that’s you then look no further. What may or may not happen to your vehicle while you “sleep”? Good news – you have all night to wonder. I’ve never been to a hotel in my life with so many people loitering in the parking lot.**Enjoy!*Don’t worry, there’s dozens of surveillance cameras! **Don’t worry, there’s dozens of surveillance cameras!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>If the opinions below do not bother you, then you are about to save a ton of money during your stay in Denver. Girlfriend and I needed to kill time before our apartment came available, and what a mistake this place was.
+1) If you’re generally not concerned with anything, including breathing (gnats in the room, wouldn’t want to inhale one) – then you just might have found your home away from home! 
+2) I like semi-firm beds. You know those TV commercials where someone is jumping on one end of a bed, and a full glass of wine is upright on the other end of the bed and it doesn't spill? That’s this bed. No, not the expensive sleep-aid memory foam kind – the rock hard, almost exposed springs, camping air cushions or egg-crate foam out of a dumpster have more comfort than this brick…that kind…but my girlfriend stepped on it and I didn’t move so its technically kinda’ like that commercial.    
+3) Do you walk in to truck stop bathrooms barefoot? If so, you’ll be fine here. There’s no telling what has soaked in to the ground in these rooms.
+4) If hard narcotics are your thing, by all means book a room here. I suspect they are in the vicinity (my opinion in this open forum and I’m a good judge).* 
+5) Sometimes we all need idle time where our mind can wander, and if that’s you...If the opinions below do not bother you, then you are about to save a ton of money during your stay in Denver. Girlfriend and I needed to kill time before our apartment came available, and what a mistake this place was.1) If you’re generally not concerned with anything, including breathing (gnats in the room, wouldn’t want to inhale one) – then you just might have found your home away from home! 2) I like semi-firm beds. You know those TV commercials where someone is jumping on one end of a bed, and a full glass of wine is upright on the other end of the bed and it doesn't spill? That’s this bed. No, not the expensive sleep-aid memory foam kind – the rock hard, almost exposed springs, camping air cushions or egg-crate foam out of a dumpster have more comfort than this brick…that kind…but my girlfriend stepped on it and I didn’t move so its technically kinda’ like that commercial.    3) Do you walk in to truck stop bathrooms barefoot? If so, you’ll be fine here. There’s no telling what has soaked in to the ground in these rooms.4) If hard narcotics are your thing, by all means book a room here. I suspect they are in the vicinity (my opinion in this open forum and I’m a good judge).* 5) Sometimes we all need idle time where our mind can wander, and if that’s you then look no further. What may or may not happen to your vehicle while you “sleep”? Good news – you have all night to wonder. I’ve never been to a hotel in my life with so many people loitering in the parking lot.**Enjoy!*Don’t worry, there’s dozens of surveillance cameras! **Don’t worry, there’s dozens of surveillance cameras!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r161025032-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>161025032</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Not too bad, like the lake view</t>
+  </si>
+  <si>
+    <t>Our room was on the back side facing the lake area, which was very nice looking with the sun sparking off of it. Other than that it was nothing remarkable, just the average Motel 6. We LOVED the Village Inn diner across the street.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r133453473-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>133453473</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>worst experience</t>
+  </si>
+  <si>
+    <t>this was the most overpriced room.  There were bugs in the bed, filthy bathtub and shower, very sketchy neighborhood.  Felt like I fell into crack alley.  I will never stay at a motel 6 again.  The help seemed like she would rather be anywhere but there.  No ice in any machine even though the temperature was near 100 degrees.  If it would not have been for the fact that we had already been driving 12 plus hours I would not have stayed.  Even after writing a letter to their corporate location they just did not care.  I agree with Jimmy J   It should be demolished.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r132629840-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>132629840</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Please read. Worth it. A little boo-hoo but if u have the patient like me... I don't think it would be a big problem.</t>
+  </si>
+  <si>
+    <t>I am frm Green Bay, WI. An 18 hrs of drive to get to Denver, CO. I reserved two two rooms w/ two double beds by phone. Checked in was semi ok bc it was &amp; 10pm &amp; every1 was wanting a place to sleep. Two workers checking ppl in &amp; was a bit ok to wait for your turn.**Got an even better deal for two rooms of total 7 adults when they only charge for only two adults for two rooms (THANK YOU)!!**.  Got the cards, went to put lugged in rooms... BAM... No extra roll of toilet papers + only two towels. Went &amp; waited patiently bc thre were 4 ppl ahead of me &amp; they were able to provide me more towels &amp; an extra roll of toilet paper. Thought it came with free wifi but I was wrong.... $2.99 for 24hrs. So I phone the office &amp; the lady was mind enough to give me two codes to use for free after I had WAITED again of 3 ppl ahead of me patiently. I might think about staying @ this hotel again. Only if the front desk ppl were as nice as this lady (I forgot her name).MoreShow less</t>
+  </si>
+  <si>
+    <t>I am frm Green Bay, WI. An 18 hrs of drive to get to Denver, CO. I reserved two two rooms w/ two double beds by phone. Checked in was semi ok bc it was &amp; 10pm &amp; every1 was wanting a place to sleep. Two workers checking ppl in &amp; was a bit ok to wait for your turn.**Got an even better deal for two rooms of total 7 adults when they only charge for only two adults for two rooms (THANK YOU)!!**.  Got the cards, went to put lugged in rooms... BAM... No extra roll of toilet papers + only two towels. Went &amp; waited patiently bc thre were 4 ppl ahead of me &amp; they were able to provide me more towels &amp; an extra roll of toilet paper. Thought it came with free wifi but I was wrong.... $2.99 for 24hrs. So I phone the office &amp; the lady was mind enough to give me two codes to use for free after I had WAITED again of 3 ppl ahead of me patiently. I might think about staying @ this hotel again. Only if the front desk ppl were as nice as this lady (I forgot her name).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r120237125-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>120237125</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Motel 6/Central Denver</t>
+  </si>
+  <si>
+    <t>I was not impressed within properties appearance, service or location.  It was one of the worst properties I've ever stayed at. It should be demolished.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r71712662-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>71712662</t>
+  </si>
+  <si>
+    <t>07/20/2010</t>
+  </si>
+  <si>
+    <t>Might as well sleep in your car.</t>
+  </si>
+  <si>
+    <t>Wow, what can I say? Well, my wife, son, and I booked a night at this Motel 6 for just one night. I really didn't expect much considering this is a Motel 6, but they managed to disappoint me. The two clerks were in a pissy fit with each other while I was checking in. The room was dirty. The bathroom door would not latch. The AC was noisy and barely functioned. I could see light through the door, and yes, it was closed. The boxsprings both were full of stains. The mattresses were beyond worn out. My wife didn't sleep a wink because she was "afraid of what was going on in around the room." We both didn't want to step barefoot on the carpet because if the mattresses were that dirty and worn, only the Lord knows how nasty the carpets were. I spotted several bugs in the room, however, that could just be because all rooms have exterior doors. The room next to us had three large dogs inside....walls certainly are not thick. The indoor pool looked nasty; we didn't swim. Oh...and yeah, the curtains were full of holes. All-in-all a gross and nasty place. We basically checked in and drive away to spend time elsewhere until bed time. I'm so disappointed I'm not sure I ever want to stay in a Motel 6 again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Wow, what can I say? Well, my wife, son, and I booked a night at this Motel 6 for just one night. I really didn't expect much considering this is a Motel 6, but they managed to disappoint me. The two clerks were in a pissy fit with each other while I was checking in. The room was dirty. The bathroom door would not latch. The AC was noisy and barely functioned. I could see light through the door, and yes, it was closed. The boxsprings both were full of stains. The mattresses were beyond worn out. My wife didn't sleep a wink because she was "afraid of what was going on in around the room." We both didn't want to step barefoot on the carpet because if the mattresses were that dirty and worn, only the Lord knows how nasty the carpets were. I spotted several bugs in the room, however, that could just be because all rooms have exterior doors. The room next to us had three large dogs inside....walls certainly are not thick. The indoor pool looked nasty; we didn't swim. Oh...and yeah, the curtains were full of holes. All-in-all a gross and nasty place. We basically checked in and drive away to spend time elsewhere until bed time. I'm so disappointed I'm not sure I ever want to stay in a Motel 6 again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r69594156-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>69594156</t>
+  </si>
+  <si>
+    <t>07/03/2010</t>
+  </si>
+  <si>
+    <t>Not the best Motel6 out there</t>
+  </si>
+  <si>
+    <t>Not much to say about our stay. It was a Motel 6 just as most of them are, however this was deffo just an average place...We just wanted a clean bed close to Denver down town, and that was what we got, but the room was kinda lousy with a really bad tv. And in the morning there were lots of noise outside, probably the cleaners, but that was a bit disturbing..Stay here if you just don't care about anything but a bed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r37035097-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>37035097</t>
+  </si>
+  <si>
+    <t>08/07/2009</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>When I checked in I asked about internet access, and was told that there would be internet access in my room. I asked if there was a fee, and the clerk said no. When I tried to log on, no internet. I went down to the front desk and stood for 20 minutes in a non-moving line to ask about the problem (one check-in clerk). Gave up, returned to my room, called the front desk and was told that I would have to come to the front desk and pay for an internet access code. I told the clerk I'd already stood in line, and he said "You''ll just have to stand in line again." Also my credit card was overcharged from the confirmed rate, but I was informed that I would have to speak to the day staff to resolve the issue. I frequently stay at Motel 6, and can tell you that this is one of the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>When I checked in I asked about internet access, and was told that there would be internet access in my room. I asked if there was a fee, and the clerk said no. When I tried to log on, no internet. I went down to the front desk and stood for 20 minutes in a non-moving line to ask about the problem (one check-in clerk). Gave up, returned to my room, called the front desk and was told that I would have to come to the front desk and pay for an internet access code. I told the clerk I'd already stood in line, and he said "You''ll just have to stand in line again." Also my credit card was overcharged from the confirmed rate, but I was informed that I would have to speak to the day staff to resolve the issue. I frequently stay at Motel 6, and can tell you that this is one of the worst.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r23240577-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>23240577</t>
+  </si>
+  <si>
+    <t>01/03/2009</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>Total Filth and dangerous electrical hazzards.  Not enough outlets to charge cell phones, laptop or use hair dryer or iron.</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r6090000-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>6090000</t>
+  </si>
+  <si>
+    <t>11/08/2006</t>
+  </si>
+  <si>
+    <t>Nice place, good value!</t>
+  </si>
+  <si>
+    <t>This Motel 6 is for sure part of the better class. The location is perfect, just off Interstate 70 and on Federal Boulevard, so wheter you are going downtown, to the Rockies or to the airport, this is a nice place to stay. The rooms are clean and affordable, with the parking lot right in front  of your door, no schlepping. Friendly staff. Supermarket and some restaurants in short walking distance. Only the rooms looking south have to deal with the traffic noise from the Interstate, so ask for the north wing to sleep well.</t>
+  </si>
+  <si>
+    <t>August 2004</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1389,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1421,2658 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>199</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" t="s">
+        <v>254</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>275</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" t="s">
+        <v>289</v>
+      </c>
+      <c r="K38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" t="s">
+        <v>291</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s">
+        <v>298</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>292</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s">
+        <v>303</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>304</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>314</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_199.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_199.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r612173541-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>83061</t>
+  </si>
+  <si>
+    <t>612173541</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Needed a place just to lay our head...we could have chosen better...</t>
+  </si>
+  <si>
+    <t>It was 10pm when we arrived and we were extremely tired.  We had booked this up in advance as a place we just needed to stay at to catch some zzzzz's...we had come in to the airport a few hours earlier.   I went for a low price...this caught my eye when booking.   However, pay up a little for something a lot better is my advice.   I am a street-smart guy but this was out of some film.    At Reception when checking in, the collection of characters was straight out of casting for a movie.  The employees were efficient but tough...they had to be.   Our room was really dated and rough though it totally met our needs of two beds and pillows.   There was no breakfast on offer and in the daylight, I could see that it looked like many rooms were long-term occupied...maybe I am wrong....I am not snobby but this place was overpriced.  It serves a need but think they could do better on what was on offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>It was 10pm when we arrived and we were extremely tired.  We had booked this up in advance as a place we just needed to stay at to catch some zzzzz's...we had come in to the airport a few hours earlier.   I went for a low price...this caught my eye when booking.   However, pay up a little for something a lot better is my advice.   I am a street-smart guy but this was out of some film.    At Reception when checking in, the collection of characters was straight out of casting for a movie.  The employees were efficient but tough...they had to be.   Our room was really dated and rough though it totally met our needs of two beds and pillows.   There was no breakfast on offer and in the daylight, I could see that it looked like many rooms were long-term occupied...maybe I am wrong....I am not snobby but this place was overpriced.  It serves a need but think they could do better on what was on offer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r593901321-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593901321</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>This place is something else!</t>
+  </si>
+  <si>
+    <t>This property is something else. I was quoted a price over the phone of $~130 USD somehow in the end it ended up being close to $200 Cad on my credit card. So this makes this the most expensive awful hotel I've stayed at. Pros:The Room was clean.The Staff were reasonably friendly and helpful.Cons:Appearance this place is about %40 renovated externally.The pool is non functioning and looked like a garbage dump.The room although clean was only %60 renovated and had the worst bed I have slept on in years, (I slept on the floor in asia, it was better).Noise the side I was on faced the highway and had killer road noise I had to take a trip at around midnight to find earplugs. Totally non existent noise isolation. My advice to management is keep up the good work. Lots of work to be done and tiny the security guard was an oddly comforting touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>This property is something else. I was quoted a price over the phone of $~130 USD somehow in the end it ended up being close to $200 Cad on my credit card. So this makes this the most expensive awful hotel I've stayed at. Pros:The Room was clean.The Staff were reasonably friendly and helpful.Cons:Appearance this place is about %40 renovated externally.The pool is non functioning and looked like a garbage dump.The room although clean was only %60 renovated and had the worst bed I have slept on in years, (I slept on the floor in asia, it was better).Noise the side I was on faced the highway and had killer road noise I had to take a trip at around midnight to find earplugs. Totally non existent noise isolation. My advice to management is keep up the good work. Lots of work to be done and tiny the security guard was an oddly comforting touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r587948425-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587948425</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Don’t stay a moment more than necessary</t>
+  </si>
+  <si>
+    <t>This is below even the usual basic motel 6s I’ve been to in the past. If you can avoid staying here, drive a bit more and book anywhere else. Even the advertised indoor pool is under construction without notice. Skip this place altogether.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>This is below even the usual basic motel 6s I’ve been to in the past. If you can avoid staying here, drive a bit more and book anywhere else. Even the advertised indoor pool is under construction without notice. Skip this place altogether.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r586377473-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>83061</t>
-  </si>
-  <si>
     <t>586377473</t>
   </si>
   <si>
@@ -172,12 +256,6 @@
   </si>
   <si>
     <t>It’s a place to lay your head for the night. Giving it one star is being generous. There’s mold everywhere in the bathroom and shower. Tv was broken, and WiFi was an extra cost. Motel is in a sketchy part of town. Thought we got a good deal on a room but it was more like a nightmare. Hookers and drug dealers came out like cockroaches at night.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>6Team, Brand Experience Team at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded June 12, 2018</t>
@@ -245,6 +323,51 @@
     <t>We've stayed at this location three times. The third time was the charm! It was a convenience factor but we have found something else better suited to our tastes and needs just a little further down the road for only a mere $20 more. Our experiences at this motel were nothing special but we found a place to sleep for our time in town. Each stay, we found hairs in the bedding and in the shower and bugs either in the shower or on the ceiling. A quick clean up on our part but really shouldn't this been done already. The beds are somewhat comfortable. Definitely not terrible. This is a very basic stay as well. No extras other than a vending machine. No alarm clocks in the rooms. No fridge. No microwave. No coffee maker. Two bars of soap provided. Due to recent renovations the rooms themselves stay fairly clean (hardwood floors). If you stay on an upper level plan on using the stairs. The elevators were out of service and appear to have been for a while. Unfortunately or impression of this place declined each stay and we will not be back. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r519632664-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>519632664</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Server the purpose for an overnight on the way somewhere</t>
+  </si>
+  <si>
+    <t>Aim was to find a cheap place in Denver, anywhere, for a reasonable price. Motel 6 is not far from that. Cheap, close to the interstate, reasonably clean.... however if you wanna go to Denver and actually see he city, it might not be your best pick. The pros: not far from the interstate, clean rooms, vicinity of some eateries (diner across is not too bad - fairly good steaks!) Parking is free.The cons: no breakfast included, which I'd expect for the price paid. Wireless for a fee, only one device though... is it early 00s? Overall take it for what it is, not a Hilton, but a place for a quick overnight, nothing less, nothing more. If you accept it, it's an okay place to stay at. Far from superlatives though. Admittedly.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Aim was to find a cheap place in Denver, anywhere, for a reasonable price. Motel 6 is not far from that. Cheap, close to the interstate, reasonably clean.... however if you wanna go to Denver and actually see he city, it might not be your best pick. The pros: not far from the interstate, clean rooms, vicinity of some eateries (diner across is not too bad - fairly good steaks!) Parking is free.The cons: no breakfast included, which I'd expect for the price paid. Wireless for a fee, only one device though... is it early 00s? Overall take it for what it is, not a Hilton, but a place for a quick overnight, nothing less, nothing more. If you accept it, it's an okay place to stay at. Far from superlatives though. Admittedly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r515173829-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>515173829</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never again </t>
+  </si>
+  <si>
+    <t>No Coffee machine or hot wather on room. No hot wather in the morning, just coffee. Payd internet. Long checking time.We wisited couple of other and much cheapers hotels than this one with much better service. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>No Coffee machine or hot wather on room. No hot wather in the morning, just coffee. Payd internet. Long checking time.We wisited couple of other and much cheapers hotels than this one with much better service. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r500578068-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -281,9 +404,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r489589792-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -302,6 +422,51 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r471087307-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>471087307</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Not bad for motel 6</t>
+  </si>
+  <si>
+    <t>Stay here for four days, it's really surprising nice, it's clean the rooms were clean it didn't stink like a lot of motel 6 do, it's close to just about anything you want or need, even the neighborhood that it was in was cleaner than advised, the one bad thing I can say is they make you pay for WiFi and it works 30 per cent of the time</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r430778156-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>430778156</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Cheap but not particularly cheerful</t>
+  </si>
+  <si>
+    <t>We were on a road trip through Colorado and stayed here because it was cheap. The room was ok - dated and cheap but ok. The car-park looked like there were people living in it and there was a security guard patrolling constantly which was good because the local area looked quite run-down.We didn't feel safe enough leaving anything in the rooms when we went out for something to eat so locked it all in the boot of the car instead.All of that said, I did sleep ok and we hit the road very early the next morning so it worked  on this occasion but I don't think I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>We were on a road trip through Colorado and stayed here because it was cheap. The room was ok - dated and cheap but ok. The car-park looked like there were people living in it and there was a security guard patrolling constantly which was good because the local area looked quite run-down.We didn't feel safe enough leaving anything in the rooms when we went out for something to eat so locked it all in the boot of the car instead.All of that said, I did sleep ok and we hit the road very early the next morning so it worked  on this occasion but I don't think I'd stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r427761159-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -317,9 +482,6 @@
     <t>Dirty beds in 2 seperate rooms, unattentive staff, came and left after 30 minutes.  Beds were full of hair and stains from god knows what. Utterly disgusting.                                                                  Security guard strolling around makes it feel like a shady area.                            No thank you.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded October 14, 2016</t>
   </si>
   <si>
@@ -371,7 +533,37 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r406683175-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>406683175</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Watch where your room is</t>
+  </si>
+  <si>
+    <t>This location has been upgraded to new rooms. Staff is very friendly. There is security on duty around the clock. My only concern would be to watch where your room is. I ended up with a freeway side room and the noise is unbearable. There is not a lot of sound proofing.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r405904668-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>405904668</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Small Room/Didn't feel safe</t>
+  </si>
+  <si>
+    <t>When we checked in, we had to give them ID's for both my husband and I.  They had a sign that said they shared that list with local police.  They had a security guard walking the property.  The room was really small.  The tub was tapered and my husband almost fell down in it.  Did not feel real safe there.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r404733739-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
@@ -428,6 +620,45 @@
     <t>My husband and I stayed here for a week while waiting for our apartment to be ready. While the room was pretty nice the staff at the hotel was horrid. The Spanish lady who works morning was rude to my husband three times as well as an elderly lady the third day we were there. Since we checked in and was using a third party site to earn towards free nights we used hotels.com instead of just paying them. The third day we were rudely told to quit cause it causes a bobble account that they have to fix. I guess the game she was playing on her phone was more important then the two minutes worth of clicking she had to preform. Then one night my husband had an emergency call and was gone from 2 a.m. to 645 and we wound up sleeping in. Since we were told to come to the office instead of using our app we woke up about 1120 and my husband went down about 10 minutes later. The same rude lady told my husband  if we were late again we would be kicked out? Well if we were doing it our way it would have been done at 6 a.m. Then to top it all off they came to check our smoke detector and the lady stood on our bed which was rude but hey she was short. She checked it and the...My husband and I stayed here for a week while waiting for our apartment to be ready. While the room was pretty nice the staff at the hotel was horrid. The Spanish lady who works morning was rude to my husband three times as well as an elderly lady the third day we were there. Since we checked in and was using a third party site to earn towards free nights we used hotels.com instead of just paying them. The third day we were rudely told to quit cause it causes a bobble account that they have to fix. I guess the game she was playing on her phone was more important then the two minutes worth of clicking she had to preform. Then one night my husband had an emergency call and was gone from 2 a.m. to 645 and we wound up sleeping in. Since we were told to come to the office instead of using our app we woke up about 1120 and my husband went down about 10 minutes later. The same rude lady told my husband  if we were late again we would be kicked out? Well if we were doing it our way it would have been done at 6 a.m. Then to top it all off they came to check our smoke detector and the lady stood on our bed which was rude but hey she was short. She checked it and the noise  made our cat freak out. Since we have two of them when one isn't happy neither is the other. So she laughed and proceeded to do it again and laugh. We were by the freeway and there was a quarter inch gap at the bottom of the door so the noise was terrible. We had to get extra towels and put at the bottom so we could sleep without hearing it. While the noise was lowered it wasn't completely gone. There are armed guards there that make you feel like your in a crime area. Finally to make things worse we found a pair of dirty panties stuck between the wall and the box spring and I was done. We told housekeeping everyday that we didn't need cleaning as our cats aren't very nice to strangers. I was given a broom and towels when I asked but when I changed our sheets I took the blanket and sheets down to exchange. I was told I couldn't have a blanket because You can only have one. When I explained I had thrown my down to be cleaned I was told they would have to wash mine and to come back. This got me to thinking that a few times while smoking downstairs I watched the maids change the sheets and use the same top blanket that had been used by the previous nights guest. We didn't go back for a blanket we bought our own. To have the maid stand of a new comforter set that was bright white really pissed me off.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r389933858-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>389933858</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Jacked up price, no free wifi, cable didn't work, no fridge, no microwave, $80/night</t>
+  </si>
+  <si>
+    <t>We booked this for my daughter for 3 nights through booking.com. The front desk clerk was very rude. She immediately told me that my fee for the "booking.com verified" reservation had been raised by $20 because "motels raise their rates every day". It was raining and we were tired, so we paid their jacked-up rates. Then their fees for wifi are $2.99 - 4.99 per night. The cable doesn't work - maybe 3 of the channels come in at all.  There is no wifi or fridge, let alone breakfast or other amenities which other similarly priced rooms offer. It was clean, and semi-attractive. That's the best I can say for it. Steer well clear of it and of booking.com.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We booked this for my daughter for 3 nights through booking.com. The front desk clerk was very rude. She immediately told me that my fee for the "booking.com verified" reservation had been raised by $20 because "motels raise their rates every day". It was raining and we were tired, so we paid their jacked-up rates. Then their fees for wifi are $2.99 - 4.99 per night. The cable doesn't work - maybe 3 of the channels come in at all.  There is no wifi or fridge, let alone breakfast or other amenities which other similarly priced rooms offer. It was clean, and semi-attractive. That's the best I can say for it. Steer well clear of it and of booking.com.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r387881691-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>387881691</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Went all you need is a bed to lay the head</t>
+  </si>
+  <si>
+    <t>When we got there the staff was nice and helpful. We asked about Wi-Fi they said it was extra. We needed it so we paid extra for it. When got to room it was ok, a room. The Wi-Fi password that I paid for did not work. I called the front desk they said it should and hung up on me. I recalled and they gave me another code it did not work so I walked to the lobby and tried the code.....it worked. Moved back to the room and as I turned the corner to the room it dropped connection. Back to the front deck I went. Told them what happened and asked to be credited for the Wi-Fi that we can't use in the room. They gave me a number to call. We called and were on hold for over 5 minutes then when I told them about the problem and asked to get a credit he would not help but insisted that the problem was not their lack of service. They keep up on the line for 15 minutes. Not a good time.. If you need Wi-Fi stay CLOSE to the lobby if not then try to sleep..MoreShow less</t>
+  </si>
+  <si>
+    <t>When we got there the staff was nice and helpful. We asked about Wi-Fi they said it was extra. We needed it so we paid extra for it. When got to room it was ok, a room. The Wi-Fi password that I paid for did not work. I called the front desk they said it should and hung up on me. I recalled and they gave me another code it did not work so I walked to the lobby and tried the code.....it worked. Moved back to the room and as I turned the corner to the room it dropped connection. Back to the front deck I went. Told them what happened and asked to be credited for the Wi-Fi that we can't use in the room. They gave me a number to call. We called and were on hold for over 5 minutes then when I told them about the problem and asked to get a credit he would not help but insisted that the problem was not their lack of service. They keep up on the line for 15 minutes. Not a good time.. If you need Wi-Fi stay CLOSE to the lobby if not then try to sleep..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r387620566-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -486,6 +717,51 @@
   </si>
   <si>
     <t>Arrived at the hotel after 6:00 to find that our credit card had already been charged a full rate, and not the senior rate, and then were told they couldn't change it. We were going to be there three more nights, but she wouldn't give the senior rate for any of the nights because only one of us was a senior and the room had been booked in the non-seniors name. We also were turned off by their policy of making any visitors (our son) register at the desk - for security reasons (?). The room would have been livable, but there was no shampoo or other toiletries, no kleenex, no clock, no wifi, not a scrap of paper or pen, nothing but spartan. That, combined with the bad attitude of the person who checked us in, soured us on ever trying a Motel 6 again. We stayed the first night (because we had already been charged) but cancelled the rest of the nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r352680144-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>352680144</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>The worst</t>
+  </si>
+  <si>
+    <t>I needed a no frills place to sleep during the day and wifi internet while I was working in Denver overnight.I though a large chain would be a safe bet. I talked with the person working the desk and she let me check in early (12 noon instead of 3pm) and I thought I was off to a good start, although the woman did seem fairly unpleasant, I thought I wouldn't have to talk with her again. I had to pay an extra 5 dollars a day for wifi, but that was OK. I was disappointed that the room didn't have a microwave or a hot water spigot, but o frills is no frills. The water pressure in the shower was not good and there was about 4 minutes worth of hot water, the bathroom smelled pretty bad but it looked clean. They give you only motel 6 soap, no shampoo or conditioner. On the second day I was there I told the housekeeper that I didn't need anything when she came by at 1pm, despite having asked them to come before noon because I would be asleep. At 3pm I got a call from the desk and the lady started yelling that she was going to evict me for smoking in the room, which I was not, she wouldn't here anything I was saying and told me it was my final warning. This whole time they were working on...I needed a no frills place to sleep during the day and wifi internet while I was working in Denver overnight.I though a large chain would be a safe bet. I talked with the person working the desk and she let me check in early (12 noon instead of 3pm) and I thought I was off to a good start, although the woman did seem fairly unpleasant, I thought I wouldn't have to talk with her again. I had to pay an extra 5 dollars a day for wifi, but that was OK. I was disappointed that the room didn't have a microwave or a hot water spigot, but o frills is no frills. The water pressure in the shower was not good and there was about 4 minutes worth of hot water, the bathroom smelled pretty bad but it looked clean. They give you only motel 6 soap, no shampoo or conditioner. On the second day I was there I told the housekeeper that I didn't need anything when she came by at 1pm, despite having asked them to come before noon because I would be asleep. At 3pm I got a call from the desk and the lady started yelling that she was going to evict me for smoking in the room, which I was not, she wouldn't here anything I was saying and told me it was my final warning. This whole time they were working on the building (bounding and drilling) I went out late in the afternoon to eat and came back late in the afternoon and my key wouldn't work, I went to the desk and they reactivated it (another employee). I got another call from the desk but they hung up around 6pm. My final day I got into my room around 10am, and tried to go to sleep early because at this point I had gotten a total of 4 hours of sleep for the week. The drilling and the pounding and the yelling (in a variety of languages) persisted to keep me mostly awake until the housekeeper came at 1:45 and hour later a man started singing Catholic Hymns in Spanish, about 10 feet from my door, drunkenly for the next 3 hours, sometimes he would erupt into screaming profanities then back to the hymns . Toward the end of this someone from maintenance came to "check" my smoke detector, she stood on my bed and reached up and fiddled with the device as the old man's howled echoed through the parking lot. I left to get some food. Came back and my key was deactivated, they reactivated it and checked my smoke detector again. This is nowhere near a full description on my complaints. I will never stay in a Motel 6 again especially not this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>I needed a no frills place to sleep during the day and wifi internet while I was working in Denver overnight.I though a large chain would be a safe bet. I talked with the person working the desk and she let me check in early (12 noon instead of 3pm) and I thought I was off to a good start, although the woman did seem fairly unpleasant, I thought I wouldn't have to talk with her again. I had to pay an extra 5 dollars a day for wifi, but that was OK. I was disappointed that the room didn't have a microwave or a hot water spigot, but o frills is no frills. The water pressure in the shower was not good and there was about 4 minutes worth of hot water, the bathroom smelled pretty bad but it looked clean. They give you only motel 6 soap, no shampoo or conditioner. On the second day I was there I told the housekeeper that I didn't need anything when she came by at 1pm, despite having asked them to come before noon because I would be asleep. At 3pm I got a call from the desk and the lady started yelling that she was going to evict me for smoking in the room, which I was not, she wouldn't here anything I was saying and told me it was my final warning. This whole time they were working on...I needed a no frills place to sleep during the day and wifi internet while I was working in Denver overnight.I though a large chain would be a safe bet. I talked with the person working the desk and she let me check in early (12 noon instead of 3pm) and I thought I was off to a good start, although the woman did seem fairly unpleasant, I thought I wouldn't have to talk with her again. I had to pay an extra 5 dollars a day for wifi, but that was OK. I was disappointed that the room didn't have a microwave or a hot water spigot, but o frills is no frills. The water pressure in the shower was not good and there was about 4 minutes worth of hot water, the bathroom smelled pretty bad but it looked clean. They give you only motel 6 soap, no shampoo or conditioner. On the second day I was there I told the housekeeper that I didn't need anything when she came by at 1pm, despite having asked them to come before noon because I would be asleep. At 3pm I got a call from the desk and the lady started yelling that she was going to evict me for smoking in the room, which I was not, she wouldn't here anything I was saying and told me it was my final warning. This whole time they were working on the building (bounding and drilling) I went out late in the afternoon to eat and came back late in the afternoon and my key wouldn't work, I went to the desk and they reactivated it (another employee). I got another call from the desk but they hung up around 6pm. My final day I got into my room around 10am, and tried to go to sleep early because at this point I had gotten a total of 4 hours of sleep for the week. The drilling and the pounding and the yelling (in a variety of languages) persisted to keep me mostly awake until the housekeeper came at 1:45 and hour later a man started singing Catholic Hymns in Spanish, about 10 feet from my door, drunkenly for the next 3 hours, sometimes he would erupt into screaming profanities then back to the hymns . Toward the end of this someone from maintenance came to "check" my smoke detector, she stood on my bed and reached up and fiddled with the device as the old man's howled echoed through the parking lot. I left to get some food. Came back and my key was deactivated, they reactivated it and checked my smoke detector again. This is nowhere near a full description on my complaints. I will never stay in a Motel 6 again especially not this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r341074049-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>341074049</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Noisy as hell!!!</t>
+  </si>
+  <si>
+    <t>Good location but it was really noisy. You can hear everything, cars, other rooms people and even the construction that is going on. I couldn't sleep at all. Cleanliness is average. The parking lot at least is secure by guards. I think they should have an announcement about the construction they actually have. It's very annoying.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r325565709-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
@@ -558,6 +834,60 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r293147094-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>293147094</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>We made reservations for a room with 2 beds for 3 nights, and we were assured we could pay for 1 night at a time in case we decided not to stay. (We saw the terrible reviews, which made us a little wary so we didn't want to be locked in to a terrible room.) We got the 2 bed room for the 1st night, but when we went to pay for the same room for 2 more nights they had booked it to someone else. We got a room but it was significantly smaller and only had 1 bed, plus the air conditioning unit made an awful noise. It sounded like it was going to break. Our first room was fine and we were happy with it, even though they didn't have enough clean towels, This Motel 6 is the worst motel we've ever stayed at. We have never had a problem with any other Motel 6 and we have stayed at several. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>We made reservations for a room with 2 beds for 3 nights, and we were assured we could pay for 1 night at a time in case we decided not to stay. (We saw the terrible reviews, which made us a little wary so we didn't want to be locked in to a terrible room.) We got the 2 bed room for the 1st night, but when we went to pay for the same room for 2 more nights they had booked it to someone else. We got a room but it was significantly smaller and only had 1 bed, plus the air conditioning unit made an awful noise. It sounded like it was going to break. Our first room was fine and we were happy with it, even though they didn't have enough clean towels, This Motel 6 is the worst motel we've ever stayed at. We have never had a problem with any other Motel 6 and we have stayed at several. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r277303508-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>277303508</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>I have been there Just for one night, it was terrible. The Rooms were very dirty, i asked a no smoking room and They didn't.I didn't sleep well cause it was near the motorway and it was very noisy, plus there were children Shouting and playing around the Rooms. The People there They didn't have good looking and there were also the Police in the parking watching if everything was okey.There are better places.. trust me.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver Central - Federal Boulevard, responded to this reviewResponded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2015</t>
+  </si>
+  <si>
+    <t>I have been there Just for one night, it was terrible. The Rooms were very dirty, i asked a no smoking room and They didn't.I didn't sleep well cause it was near the motorway and it was very noisy, plus there were children Shouting and playing around the Rooms. The People there They didn't have good looking and there were also the Police in the parking watching if everything was okey.There are better places.. trust me.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r277107194-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -616,6 +946,42 @@
     <t>Dirty carpet.  Curtains falling off windows. Holes in the bathroom door and holes in bathroom walls. Yuck yuck. Will not stay at Motel 6 again. Only good part (sorta) was there was a security guard that patrolled the grounds at night, which made us feel better about our car.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r260236266-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>260236266</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not centralJust off I 70About 55 a nightPlus 3 bucks for wifiLooks dodgy from outside but room was niceBed was good Wifi was usual slow motel 6 typeThere was some rough people arguing in one roomNo lift workingOk budget option if you get into town late </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r254396343-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>254396343</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>hard to believe</t>
+  </si>
+  <si>
+    <t>I read some bad reviews about this hotel and thought for sure it couldn't be that bad. We booked a room with a refrigerator and microwave. Upon arrival we were informed that there are no rooms with refrigerators and microwaves. The same person then told us there was a refrigerator in one of the rooms but he didn't know which one. The room was not very clean when we got there. I never used the elevator because of the extremely long delay in its arrival, even though it services just 3 floors. The total number of cable channels was about 8. In the morning there was no hot water at all. Only ice cold water. I did get a refund for the missing appliances and then a further refund for the lack of hot water.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I read some bad reviews about this hotel and thought for sure it couldn't be that bad. We booked a room with a refrigerator and microwave. Upon arrival we were informed that there are no rooms with refrigerators and microwaves. The same person then told us there was a refrigerator in one of the rooms but he didn't know which one. The room was not very clean when we got there. I never used the elevator because of the extremely long delay in its arrival, even though it services just 3 floors. The total number of cable channels was about 8. In the morning there was no hot water at all. Only ice cold water. I did get a refund for the missing appliances and then a further refund for the lack of hot water.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r229669938-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -682,6 +1048,51 @@
     <t>When we stayed here, this motel was pretty full. Being cost conscious, and budgeting traveling USA for a month on $100/day, it is always good to find a serviceable acceptable hotel for $40/nt. This being our criteria, I gotta say this motel was pretty good. It's a little tired, and didn't have breakfast, but it did provide coffee, a laundry, fridge and microwave. You sure could do a lot worse for $40/nt., and we would stay here again.Oh, the other thing is that it is a ways outta town, but the freeways get you here pretty quick. Maybe a good thing, as a lot of people in Denver proper seem to be somewhat strange.....maybe different is a better description....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r227979530-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>227979530</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>$68.00 a night for this Less than 1 Star Hotel?  My advice, just keep driving....</t>
+  </si>
+  <si>
+    <t>A very dangerous motel to stay in.  Stay away.  Stayed there for the 2nd time in about 7-years.  Golf trip to BMW Championship.  Previously, this hotel was under another Flag, "Days Inn" I do believe.  Nothing had changed for the better.  "Absolutely Nothing"....The "Queen Size Bed" I slept on, was the worst I have ever slept on in my life.  Right side of the bed was totally collapsed.  Creepy hotel guest's where found on every floor of the property (on cell phones or smoking outside).  Hotel is located right next to a Burger King.  There was no where to park, as the property is shaped in a U. Plenty of Handicap Parking (unoccupied).  Contractors were actually working on the first floor rooms (gutting them, b/c Motel 6 likely mandated this).  Elevator had not changed or been upgraded in 7-years.  Towels were paper thin (very few towels).  Delores, at the front desk was just plain rude, and unaccomodating to book one more night for me.  D, said that I had to go back on line and book for the cheaper rate.  Wow, that was so kind of you to not assist at this "dump".  Didn't want to change hotels as I was leaving the next day to fly back to my home city.  Any place --- I repeat - - - any place, is nicer than this place.  Not even nice enought to be a "Motel 6".  Motel 6 should pull...A very dangerous motel to stay in.  Stay away.  Stayed there for the 2nd time in about 7-years.  Golf trip to BMW Championship.  Previously, this hotel was under another Flag, "Days Inn" I do believe.  Nothing had changed for the better.  "Absolutely Nothing"....The "Queen Size Bed" I slept on, was the worst I have ever slept on in my life.  Right side of the bed was totally collapsed.  Creepy hotel guest's where found on every floor of the property (on cell phones or smoking outside).  Hotel is located right next to a Burger King.  There was no where to park, as the property is shaped in a U. Plenty of Handicap Parking (unoccupied).  Contractors were actually working on the first floor rooms (gutting them, b/c Motel 6 likely mandated this).  Elevator had not changed or been upgraded in 7-years.  Towels were paper thin (very few towels).  Delores, at the front desk was just plain rude, and unaccomodating to book one more night for me.  D, said that I had to go back on line and book for the cheaper rate.  Wow, that was so kind of you to not assist at this "dump".  Didn't want to change hotels as I was leaving the next day to fly back to my home city.  Any place --- I repeat - - - any place, is nicer than this place.  Not even nice enought to be a "Motel 6".  Motel 6 should pull the flag, it is that bad.....yuk yuk yuk yuk yuk yuk yuk yuk yuk yuk yuk yuk.MoreShow less</t>
+  </si>
+  <si>
+    <t>A very dangerous motel to stay in.  Stay away.  Stayed there for the 2nd time in about 7-years.  Golf trip to BMW Championship.  Previously, this hotel was under another Flag, "Days Inn" I do believe.  Nothing had changed for the better.  "Absolutely Nothing"....The "Queen Size Bed" I slept on, was the worst I have ever slept on in my life.  Right side of the bed was totally collapsed.  Creepy hotel guest's where found on every floor of the property (on cell phones or smoking outside).  Hotel is located right next to a Burger King.  There was no where to park, as the property is shaped in a U. Plenty of Handicap Parking (unoccupied).  Contractors were actually working on the first floor rooms (gutting them, b/c Motel 6 likely mandated this).  Elevator had not changed or been upgraded in 7-years.  Towels were paper thin (very few towels).  Delores, at the front desk was just plain rude, and unaccomodating to book one more night for me.  D, said that I had to go back on line and book for the cheaper rate.  Wow, that was so kind of you to not assist at this "dump".  Didn't want to change hotels as I was leaving the next day to fly back to my home city.  Any place --- I repeat - - - any place, is nicer than this place.  Not even nice enought to be a "Motel 6".  Motel 6 should pull...A very dangerous motel to stay in.  Stay away.  Stayed there for the 2nd time in about 7-years.  Golf trip to BMW Championship.  Previously, this hotel was under another Flag, "Days Inn" I do believe.  Nothing had changed for the better.  "Absolutely Nothing"....The "Queen Size Bed" I slept on, was the worst I have ever slept on in my life.  Right side of the bed was totally collapsed.  Creepy hotel guest's where found on every floor of the property (on cell phones or smoking outside).  Hotel is located right next to a Burger King.  There was no where to park, as the property is shaped in a U. Plenty of Handicap Parking (unoccupied).  Contractors were actually working on the first floor rooms (gutting them, b/c Motel 6 likely mandated this).  Elevator had not changed or been upgraded in 7-years.  Towels were paper thin (very few towels).  Delores, at the front desk was just plain rude, and unaccomodating to book one more night for me.  D, said that I had to go back on line and book for the cheaper rate.  Wow, that was so kind of you to not assist at this "dump".  Didn't want to change hotels as I was leaving the next day to fly back to my home city.  Any place --- I repeat - - - any place, is nicer than this place.  Not even nice enought to be a "Motel 6".  Motel 6 should pull the flag, it is that bad.....yuk yuk yuk yuk yuk yuk yuk yuk yuk yuk yuk yuk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r226743424-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>226743424</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>I have stayed in worse places than this, but that was when I was in the Army and I was being paid to be uncomfortable.</t>
+  </si>
+  <si>
+    <t>Any accommodation should be judged by the level at which it pitches itself in the market, so a motel should be judged at that level, and not compared with any hotel at which I might have stayed last month.  Motel 6 clearly competes at the cheap end of the market, so I am judging it by those standards (although I'm not sure that a grading of excellent would be justified for any cheap end motel).
+Even by those low standards this Motel 6 property was dreadful.  As other contributors have reported, my non-smoking room stank of cigarette smoke.  I assume that someone had carried out motorcycle maintenance in the room, judging by the stains all over the carpet.  (This is one of the few hotels in which I had stayed at which I wore my slippers all the time).  Everything in the room was cheap, and I do prefer a lavatory which has a cover as well as a seat.  And hey, who really wants hot water for shaving (although it was hot in the shower)?
+If you are unlucky enough to have a room on the side overlooking the Interstate highway, as I was, just hope that your air-conditioning will be noisy enough to drown out at least some of the traffic noise.
+One positive point is that the drug-dealers and hookers were obviously having a night off.  There are also eating places (of a sort) within easy walking...Any accommodation should be judged by the level at which it pitches itself in the market, so a motel should be judged at that level, and not compared with any hotel at which I might have stayed last month.  Motel 6 clearly competes at the cheap end of the market, so I am judging it by those standards (although I'm not sure that a grading of excellent would be justified for any cheap end motel).Even by those low standards this Motel 6 property was dreadful.  As other contributors have reported, my non-smoking room stank of cigarette smoke.  I assume that someone had carried out motorcycle maintenance in the room, judging by the stains all over the carpet.  (This is one of the few hotels in which I had stayed at which I wore my slippers all the time).  Everything in the room was cheap, and I do prefer a lavatory which has a cover as well as a seat.  And hey, who really wants hot water for shaving (although it was hot in the shower)?If you are unlucky enough to have a room on the side overlooking the Interstate highway, as I was, just hope that your air-conditioning will be noisy enough to drown out at least some of the traffic noise.One positive point is that the drug-dealers and hookers were obviously having a night off.  There are also eating places (of a sort) within easy walking distance.So why was I staying here, as an assiduous user of TripAdvisor?  Because a group which I had joined had chosen this chain as its principal provider of accommodation.  I certainly wouldn't have been at this motel by my choice, and recommend others to stay clear.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Any accommodation should be judged by the level at which it pitches itself in the market, so a motel should be judged at that level, and not compared with any hotel at which I might have stayed last month.  Motel 6 clearly competes at the cheap end of the market, so I am judging it by those standards (although I'm not sure that a grading of excellent would be justified for any cheap end motel).
+Even by those low standards this Motel 6 property was dreadful.  As other contributors have reported, my non-smoking room stank of cigarette smoke.  I assume that someone had carried out motorcycle maintenance in the room, judging by the stains all over the carpet.  (This is one of the few hotels in which I had stayed at which I wore my slippers all the time).  Everything in the room was cheap, and I do prefer a lavatory which has a cover as well as a seat.  And hey, who really wants hot water for shaving (although it was hot in the shower)?
+If you are unlucky enough to have a room on the side overlooking the Interstate highway, as I was, just hope that your air-conditioning will be noisy enough to drown out at least some of the traffic noise.
+One positive point is that the drug-dealers and hookers were obviously having a night off.  There are also eating places (of a sort) within easy walking...Any accommodation should be judged by the level at which it pitches itself in the market, so a motel should be judged at that level, and not compared with any hotel at which I might have stayed last month.  Motel 6 clearly competes at the cheap end of the market, so I am judging it by those standards (although I'm not sure that a grading of excellent would be justified for any cheap end motel).Even by those low standards this Motel 6 property was dreadful.  As other contributors have reported, my non-smoking room stank of cigarette smoke.  I assume that someone had carried out motorcycle maintenance in the room, judging by the stains all over the carpet.  (This is one of the few hotels in which I had stayed at which I wore my slippers all the time).  Everything in the room was cheap, and I do prefer a lavatory which has a cover as well as a seat.  And hey, who really wants hot water for shaving (although it was hot in the shower)?If you are unlucky enough to have a room on the side overlooking the Interstate highway, as I was, just hope that your air-conditioning will be noisy enough to drown out at least some of the traffic noise.One positive point is that the drug-dealers and hookers were obviously having a night off.  There are also eating places (of a sort) within easy walking distance.So why was I staying here, as an assiduous user of TripAdvisor?  Because a group which I had joined had chosen this chain as its principal provider of accommodation.  I certainly wouldn't have been at this motel by my choice, and recommend others to stay clear.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r221989652-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -697,9 +1108,6 @@
     <t>First the motel rooms were not even ready to 'rent' for the night at 4:00 pm. Had to make a reservation to come back an hour later. Was supposed to be in a NON-smoking room, it reeked of cigarette smoke and every other room around us had smokers in them smoking on the balcony. There was black, slimey muck coming out of the bathtub drain. The bed was hard and uncomfortable. There were transients, bums and tweekers all around the premises. The other 'guests' looked as if they had taken up residence and were loitering all over the place. Not to mention that the 'guests' were extremely obnoxious and screamed and yelled through the night. DO NOT stay here if you expect a decent room with peace and quiet!MoreShow less</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>First the motel rooms were not even ready to 'rent' for the night at 4:00 pm. Had to make a reservation to come back an hour later. Was supposed to be in a NON-smoking room, it reeked of cigarette smoke and every other room around us had smokers in them smoking on the balcony. There was black, slimey muck coming out of the bathtub drain. The bed was hard and uncomfortable. There were transients, bums and tweekers all around the premises. The other 'guests' looked as if they had taken up residence and were loitering all over the place. Not to mention that the 'guests' were extremely obnoxious and screamed and yelled through the night. DO NOT stay here if you expect a decent room with peace and quiet!More</t>
   </si>
   <si>
@@ -733,6 +1141,45 @@
     <t>We went to reserve a room and got told it would be a few hours before the room would be done. So we didnt care cuz we needed to get shopping done at the mall. So we did our shopping, came back 4 hours later and the guy at the front said the room wasnt ready. We already had a baby asleep in the back of our car and wanted him to be in a bed to sleep. We were both PISSED and disappointed. DONT STAY HERE!!!!!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r213933311-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>213933311</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Is This Really A Motel 6 Property??</t>
+  </si>
+  <si>
+    <t>I stayed there on 7/2/2014 and wanted a non-smoking room with WiFi.  The clerk told me not to waste my $2.99 per day for WiFi, as it was very slow and didn't work a lot of the time.  I thought I could live without that for one night, so when I got to my room, it smelled terribly of smoke and it got twice as bad when the air conditioner automatically turned on.  The carpets were also filthy dirty with greasy spots in many areas.  I went ahead and stayed there for the night without asking for another room, as he was turning people away when I checked in because they were full for the night.  The location was what looked to be in a bad area of town and the clientele looked to be not up to par with what I have seen at other Motel 6's. I really have trouble believing this is a Motel 6 property, as I have stayed in many of them throughout the years with no issues.  I will NEVER stay at this property again and will start checking the rooms before paying on Motel 6 establishments which I have never been to before.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I stayed there on 7/2/2014 and wanted a non-smoking room with WiFi.  The clerk told me not to waste my $2.99 per day for WiFi, as it was very slow and didn't work a lot of the time.  I thought I could live without that for one night, so when I got to my room, it smelled terribly of smoke and it got twice as bad when the air conditioner automatically turned on.  The carpets were also filthy dirty with greasy spots in many areas.  I went ahead and stayed there for the night without asking for another room, as he was turning people away when I checked in because they were full for the night.  The location was what looked to be in a bad area of town and the clientele looked to be not up to par with what I have seen at other Motel 6's. I really have trouble believing this is a Motel 6 property, as I have stayed in many of them throughout the years with no issues.  I will NEVER stay at this property again and will start checking the rooms before paying on Motel 6 establishments which I have never been to before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r212208513-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>212208513</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Horrifying!!!</t>
+  </si>
+  <si>
+    <t>We walked in the room and looked what we got what we payed for. Pretty clean, stained but well kept carpet, beds looked ok besides a few stains and a small bug on one bed. We sat down and turned on the middle lights and the tv. After about 10 minuites we started smelling something like burnt plastic. We started looking around and to our horror, on the inside of the lamp hanging off the metal piece is a half melted, burning black condom filled with cum! We immediately freaked out and called the front desk. The room was switched for an equally nasty room with cum stains on the bed and little bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>We walked in the room and looked what we got what we payed for. Pretty clean, stained but well kept carpet, beds looked ok besides a few stains and a small bug on one bed. We sat down and turned on the middle lights and the tv. After about 10 minuites we started smelling something like burnt plastic. We started looking around and to our horror, on the inside of the lamp hanging off the metal piece is a half melted, burning black condom filled with cum! We immediately freaked out and called the front desk. The room was switched for an equally nasty room with cum stains on the bed and little bugs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r210415451-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -782,6 +1229,42 @@
   </si>
   <si>
     <t>This is hands down the nastiest hotel we have ever checked into...they charge you up front and then send you to your crime lab lovers dream room! Wall black, curtains black with dirt, pubic hair on the sink, blood, yes blood dried onto of the dirt covered walls. The light switches were black with dirt, non smoking rooms had all been heavily smoked in and the worst customer service from not one but 3 employees and a manager. We drove 900 miles just to pack up and leave, we drove another 50 miles to not sleep in filth and among tons of prostitutes and druggies. KEEP DRIVING!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r177405534-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>177405534</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>No way.</t>
+  </si>
+  <si>
+    <t>Going on a family vacation. And we ended up coming in late. Wanted a non smoking room. Ended up getting a smoking room.  When we went down to the front they rudely switched us rooms.  After checking in to that room it was dusty in some spots. Bathroom was clean.  Probably will not stay again we should've done more research.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r175284252-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>175284252</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Ashtrays in no smoking rooms?</t>
+  </si>
+  <si>
+    <t>It started to pour so we thought we'd park for the night and asked for a non smoking room.  While unpacking the bike we quickly realized the room had been recently smoked in.  The staff quickly assured me it is a non smoking room, and all our rooms have ashtrays in them, so I suggested refunding my money and I will go elsewhere.  She then offered me a did decent room, after checking it out, it did not seem to smell (until, we layer our heads down on the stinky pillows). If they are non-smoking rooms, whe the heck is there an ashtray in there?</t>
+  </si>
+  <si>
+    <t>July 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r171127726-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
@@ -857,6 +1340,36 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r137678807-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>137678807</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Drug House Motel 6</t>
+  </si>
+  <si>
+    <t>I stayed here June 28 - 30, 2012.  I stayed here because lodging in Denver was basically none existent during these three days,Check-in was a horrible experience.  I was charged a much higher cost than what I should have.The clerk acted very disoriented and "out of it".My room was a typical Motel 6 room on the first floor.  My experience was horrible over my stay.  The first night, I received phone call after phone call, asking if I wanted "sexual favors" done to me.  NO!!!!!!  I also witnessed numerous drug dealings going on, and had my door banged on several times. the second night.Very obvious, it is in a BAD NEIGHBORHOOD!  The ice machine never had ice in it.  The indoor pool, GROSS.  I never saw security anywhere in this hotel.Upon checkout, I explained issues to the clerk (the same person who checked me in) and she said, oh well.  I did send an email to the manager, and the response I got back was "Sorry we did not live up to your expectations.  Please give us a second chance."  At the rate that they charge, and the neighborhood that this hotel is in, NO WAY are they getting a second chance!Bottom line, if you are in need of a hotel, keep driving by this one.  Don't waste your time!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here June 28 - 30, 2012.  I stayed here because lodging in Denver was basically none existent during these three days,Check-in was a horrible experience.  I was charged a much higher cost than what I should have.The clerk acted very disoriented and "out of it".My room was a typical Motel 6 room on the first floor.  My experience was horrible over my stay.  The first night, I received phone call after phone call, asking if I wanted "sexual favors" done to me.  NO!!!!!!  I also witnessed numerous drug dealings going on, and had my door banged on several times. the second night.Very obvious, it is in a BAD NEIGHBORHOOD!  The ice machine never had ice in it.  The indoor pool, GROSS.  I never saw security anywhere in this hotel.Upon checkout, I explained issues to the clerk (the same person who checked me in) and she said, oh well.  I did send an email to the manager, and the response I got back was "Sorry we did not live up to your expectations.  Please give us a second chance."  At the rate that they charge, and the neighborhood that this hotel is in, NO WAY are they getting a second chance!Bottom line, if you are in need of a hotel, keep driving by this one.  Don't waste your time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r137661003-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>137661003</t>
+  </si>
+  <si>
+    <t>just a Motel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was just a Motel 6, sure not the best of them, but all in all you should expect what you'll findLocation in quite good: only 20 min by car from the city centre. Neighbours seems not so bad also. The room was clean. Wi-fi (3 $) was very poor in my room (which was quite far from reception) </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r133453473-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -905,6 +1418,45 @@
     <t>I was not impressed within properties appearance, service or location.  It was one of the worst properties I've ever stayed at. It should be demolished.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r118041219-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>118041219</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>We asked for a refund after seeing the room.</t>
+  </si>
+  <si>
+    <t>The one and only plus about this place was how friendly and accommodating the front desk staff were when we asked for a refund and checked out without spending a single night here.It's in a seedy section of town, the front lobby smells like cigarette smoke, there's no breakfast, wifi is over $3 a day, and our room wouldn't open even though the key worked.  When we brought this to their attention, they told us we just had to "push real hard."I'm not giving birth, I'm trying to spend a couple of restful nights in a motel.We booked (unbooked?) it out of there and hit up the nearby McDonald's for wifi so we could find somewhere--anywhere--else to stay for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>The one and only plus about this place was how friendly and accommodating the front desk staff were when we asked for a refund and checked out without spending a single night here.It's in a seedy section of town, the front lobby smells like cigarette smoke, there's no breakfast, wifi is over $3 a day, and our room wouldn't open even though the key worked.  When we brought this to their attention, they told us we just had to "push real hard."I'm not giving birth, I'm trying to spend a couple of restful nights in a motel.We booked (unbooked?) it out of there and hit up the nearby McDonald's for wifi so we could find somewhere--anywhere--else to stay for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r86010900-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>86010900</t>
+  </si>
+  <si>
+    <t>11/04/2010</t>
+  </si>
+  <si>
+    <t>Average,but,rather noisy</t>
+  </si>
+  <si>
+    <t>pros:excellent locationthe room was reasonably priced allows pets at no extra chargecons:the front desk person has absolutely no personalitypeople slamming car doors at wee hours of the night ,keeping me awakeI just didn't feel comfortable at all</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r71712662-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
   </si>
   <si>
@@ -960,6 +1512,42 @@
   </si>
   <si>
     <t>When I checked in I asked about internet access, and was told that there would be internet access in my room. I asked if there was a fee, and the clerk said no. When I tried to log on, no internet. I went down to the front desk and stood for 20 minutes in a non-moving line to ask about the problem (one check-in clerk). Gave up, returned to my room, called the front desk and was told that I would have to come to the front desk and pay for an internet access code. I told the clerk I'd already stood in line, and he said "You''ll just have to stand in line again." Also my credit card was overcharged from the confirmed rate, but I was informed that I would have to speak to the day staff to resolve the issue. I frequently stay at Motel 6, and can tell you that this is one of the worst.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r34356719-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>34356719</t>
+  </si>
+  <si>
+    <t>07/09/2009</t>
+  </si>
+  <si>
+    <t>pretty basic</t>
+  </si>
+  <si>
+    <t>My in-laws stayed here for a week while visiting us, this hotel was the closest to our house with a reasonable weekly rate.  The room was as expected small and pretty bare bones, but reasonably clean and comfortable.  At check in they said since we were getting the weekly rate housekeeping would only come 2x per week so they had to go to the front desk for clean towels (not a big deal) but in a week, housekeeping never did come to clean or change the linens.  They went to the front desk to tell them and the staff offered to let them borrow a vacuum!  All in all if you just want a place to sleep and aren't going to spend a ton of time in the room, the location is great.  Pool was nice as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>My in-laws stayed here for a week while visiting us, this hotel was the closest to our house with a reasonable weekly rate.  The room was as expected small and pretty bare bones, but reasonably clean and comfortable.  At check in they said since we were getting the weekly rate housekeeping would only come 2x per week so they had to go to the front desk for clean towels (not a big deal) but in a week, housekeeping never did come to clean or change the linens.  They went to the front desk to tell them and the staff offered to let them borrow a vacuum!  All in all if you just want a place to sleep and aren't going to spend a ton of time in the room, the location is great.  Pool was nice as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r30355461-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>30355461</t>
+  </si>
+  <si>
+    <t>05/20/2009</t>
+  </si>
+  <si>
+    <t>good location near interstate, nice rooms, but a bit old, friendly staff, just aside burger king what is good for breakfast, nice Rocky Mountain Lake on the other side of the interstate.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83061-r23240577-Motel_6_Denver_Central_Federal_Boulevard-Denver_Colorado.html</t>
@@ -1530,7 +2118,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1538,12 +2126,18 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1591,7 +2185,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1600,18 +2194,26 @@
         <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1627,7 +2229,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1636,25 +2238,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1665,10 +2267,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1684,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1693,22 +2299,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -1722,10 +2328,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1741,7 +2351,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1750,43 +2360,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1802,7 +2408,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1811,25 +2417,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1843,7 +2449,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -1859,7 +2465,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1868,43 +2474,45 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>99</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1920,7 +2528,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1929,49 +2537,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1987,7 +2589,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1996,25 +2598,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2028,7 +2630,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2646,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2053,37 +2655,35 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
         <v>63</v>
       </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2091,7 +2691,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2107,7 +2707,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2116,45 +2716,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2170,7 +2764,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2179,22 +2773,26 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2207,7 +2805,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
@@ -2223,7 +2821,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2232,39 +2830,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2280,7 +2886,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2289,45 +2895,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>143</v>
-      </c>
-      <c r="L15" t="s">
-        <v>144</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>145</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -2343,7 +2947,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2352,49 +2956,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
+      <c r="R16" t="n">
         <v>2</v>
       </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -2410,7 +3014,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2419,43 +3023,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -2471,7 +3071,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2480,49 +3080,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>167</v>
-      </c>
-      <c r="X18" t="s">
-        <v>168</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -2538,7 +3132,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2547,32 +3141,32 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
         <v>174</v>
       </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>175</v>
-      </c>
       <c r="O19" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>3</v>
@@ -2583,7 +3177,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -2599,7 +3193,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2608,37 +3202,37 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2646,7 +3240,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -2662,7 +3256,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2671,37 +3265,37 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2709,7 +3303,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -2725,7 +3319,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2734,26 +3328,22 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="s">
-        <v>188</v>
-      </c>
-      <c r="O22" t="s">
-        <v>63</v>
-      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -2766,7 +3356,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
@@ -2782,7 +3372,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2791,27 +3381,29 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>2</v>
@@ -2819,19 +3411,15 @@
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>200</v>
-      </c>
-      <c r="X23" t="s">
-        <v>201</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -2847,7 +3435,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2856,25 +3444,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2885,12 +3473,8 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>208</v>
-      </c>
-      <c r="X24" t="s">
-        <v>209</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
         <v>210</v>
       </c>
@@ -2920,46 +3504,36 @@
         <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>208</v>
-      </c>
-      <c r="X25" t="s">
-        <v>209</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
@@ -2975,7 +3549,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2984,35 +3558,37 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3020,7 +3596,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
@@ -3059,19 +3635,19 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3080,10 +3656,14 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>228</v>
+      </c>
+      <c r="X27" t="s">
+        <v>229</v>
+      </c>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -3099,7 +3679,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3108,31 +3688,31 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
-      <c r="R28" t="n">
-        <v>1</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
         <v>1</v>
       </c>
@@ -3143,10 +3723,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
       <c r="Y28" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
@@ -3162,7 +3746,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3171,49 +3755,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -3229,7 +3803,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3238,41 +3812,35 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
         <v>1</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3280,7 +3848,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
@@ -3296,7 +3864,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3305,34 +3873,34 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>1</v>
@@ -3340,10 +3908,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>259</v>
+      </c>
+      <c r="X31" t="s">
+        <v>260</v>
+      </c>
       <c r="Y31" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
@@ -3359,7 +3931,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3368,49 +3940,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>3</v>
       </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>255</v>
-      </c>
-      <c r="X32" t="s">
-        <v>256</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
@@ -3426,7 +3992,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3435,49 +4001,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>3</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>274</v>
+      </c>
+      <c r="X33" t="s">
+        <v>275</v>
+      </c>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
@@ -3493,7 +4053,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3502,49 +4062,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>3</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>283</v>
+      </c>
+      <c r="X34" t="s">
+        <v>284</v>
+      </c>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
@@ -3560,7 +4114,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3569,41 +4123,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3611,7 +4161,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36">
@@ -3627,7 +4177,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3636,37 +4186,37 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>97</v>
+      </c>
       <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
         <v>4</v>
       </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3674,7 +4224,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
@@ -3690,7 +4240,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3699,45 +4249,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
@@ -3753,7 +4297,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3762,49 +4306,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
@@ -3820,7 +4354,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3829,41 +4363,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3871,7 +4401,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40">
@@ -3887,7 +4417,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3896,49 +4426,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s">
-        <v>85</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
         <v>2</v>
       </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>322</v>
+      </c>
+      <c r="X40" t="s">
+        <v>323</v>
+      </c>
       <c r="Y40" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41">
@@ -3954,7 +4482,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3963,49 +4491,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>330</v>
+      </c>
+      <c r="X41" t="s">
+        <v>331</v>
+      </c>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
@@ -4021,7 +4543,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4030,37 +4552,33 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="J42" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>317</v>
-      </c>
-      <c r="O42" t="s">
-        <v>115</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4069,10 +4587,1901 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>330</v>
+      </c>
+      <c r="X42" t="s">
+        <v>331</v>
+      </c>
       <c r="Y42" t="s">
-        <v>316</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>339</v>
+      </c>
+      <c r="J43" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" t="s">
+        <v>341</v>
+      </c>
+      <c r="L43" t="s">
+        <v>342</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>345</v>
+      </c>
+      <c r="J44" t="s">
+        <v>346</v>
+      </c>
+      <c r="K44" t="s">
+        <v>347</v>
+      </c>
+      <c r="L44" t="s">
+        <v>348</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>349</v>
+      </c>
+      <c r="O44" t="s">
+        <v>104</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>352</v>
+      </c>
+      <c r="J45" t="s">
+        <v>353</v>
+      </c>
+      <c r="K45" t="s">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s">
+        <v>355</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>349</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>358</v>
+      </c>
+      <c r="J46" t="s">
+        <v>359</v>
+      </c>
+      <c r="K46" t="s">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s">
+        <v>361</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>363</v>
+      </c>
+      <c r="J47" t="s">
+        <v>364</v>
+      </c>
+      <c r="K47" t="s">
+        <v>365</v>
+      </c>
+      <c r="L47" t="s">
+        <v>366</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>368</v>
+      </c>
+      <c r="J48" t="s">
+        <v>369</v>
+      </c>
+      <c r="K48" t="s">
+        <v>370</v>
+      </c>
+      <c r="L48" t="s">
+        <v>371</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>372</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>374</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>375</v>
+      </c>
+      <c r="J49" t="s">
+        <v>376</v>
+      </c>
+      <c r="K49" t="s">
+        <v>377</v>
+      </c>
+      <c r="L49" t="s">
+        <v>378</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>380</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>381</v>
+      </c>
+      <c r="J50" t="s">
+        <v>382</v>
+      </c>
+      <c r="K50" t="s">
+        <v>383</v>
+      </c>
+      <c r="L50" t="s">
+        <v>384</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>385</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>388</v>
+      </c>
+      <c r="J51" t="s">
+        <v>389</v>
+      </c>
+      <c r="K51" t="s">
+        <v>390</v>
+      </c>
+      <c r="L51" t="s">
+        <v>391</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>385</v>
+      </c>
+      <c r="O51" t="s">
+        <v>97</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" t="s">
+        <v>394</v>
+      </c>
+      <c r="K52" t="s">
+        <v>395</v>
+      </c>
+      <c r="L52" t="s">
+        <v>396</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>398</v>
+      </c>
+      <c r="J53" t="s">
+        <v>399</v>
+      </c>
+      <c r="K53" t="s">
+        <v>400</v>
+      </c>
+      <c r="L53" t="s">
+        <v>401</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>402</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>403</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>404</v>
+      </c>
+      <c r="J54" t="s">
+        <v>405</v>
+      </c>
+      <c r="K54" t="s">
+        <v>406</v>
+      </c>
+      <c r="L54" t="s">
+        <v>407</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>408</v>
+      </c>
+      <c r="O54" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>409</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>410</v>
+      </c>
+      <c r="J55" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" t="s">
+        <v>412</v>
+      </c>
+      <c r="L55" t="s">
+        <v>413</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>414</v>
+      </c>
+      <c r="X55" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>417</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>418</v>
+      </c>
+      <c r="J56" t="s">
+        <v>419</v>
+      </c>
+      <c r="K56" t="s">
+        <v>420</v>
+      </c>
+      <c r="L56" t="s">
+        <v>421</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>422</v>
+      </c>
+      <c r="O56" t="s">
+        <v>97</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>424</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>425</v>
+      </c>
+      <c r="J57" t="s">
+        <v>426</v>
+      </c>
+      <c r="K57" t="s">
+        <v>427</v>
+      </c>
+      <c r="L57" t="s">
+        <v>428</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>429</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>430</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>431</v>
+      </c>
+      <c r="J58" t="s">
+        <v>432</v>
+      </c>
+      <c r="K58" t="s">
+        <v>433</v>
+      </c>
+      <c r="L58" t="s">
+        <v>434</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>429</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>436</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>437</v>
+      </c>
+      <c r="J59" t="s">
+        <v>432</v>
+      </c>
+      <c r="K59" t="s">
+        <v>438</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>440</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>441</v>
+      </c>
+      <c r="J60" t="s">
+        <v>442</v>
+      </c>
+      <c r="K60" t="s">
+        <v>443</v>
+      </c>
+      <c r="L60" t="s">
+        <v>444</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>429</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>445</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>446</v>
+      </c>
+      <c r="J61" t="s">
+        <v>447</v>
+      </c>
+      <c r="K61" t="s">
+        <v>448</v>
+      </c>
+      <c r="L61" t="s">
+        <v>449</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>451</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>452</v>
+      </c>
+      <c r="J62" t="s">
+        <v>453</v>
+      </c>
+      <c r="K62" t="s">
+        <v>454</v>
+      </c>
+      <c r="L62" t="s">
+        <v>455</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>456</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>457</v>
+      </c>
+      <c r="J63" t="s">
+        <v>458</v>
+      </c>
+      <c r="K63" t="s">
+        <v>459</v>
+      </c>
+      <c r="L63" t="s">
+        <v>460</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>461</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>463</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>464</v>
+      </c>
+      <c r="J64" t="s">
+        <v>465</v>
+      </c>
+      <c r="K64" t="s">
+        <v>466</v>
+      </c>
+      <c r="L64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>468</v>
+      </c>
+      <c r="O64" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>469</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>470</v>
+      </c>
+      <c r="J65" t="s">
+        <v>471</v>
+      </c>
+      <c r="K65" t="s">
+        <v>472</v>
+      </c>
+      <c r="L65" t="s">
+        <v>473</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>474</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>476</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>477</v>
+      </c>
+      <c r="J66" t="s">
+        <v>478</v>
+      </c>
+      <c r="K66" t="s">
+        <v>479</v>
+      </c>
+      <c r="L66" t="s">
+        <v>480</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>474</v>
+      </c>
+      <c r="O66" t="s">
+        <v>97</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>481</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>482</v>
+      </c>
+      <c r="J67" t="s">
+        <v>483</v>
+      </c>
+      <c r="K67" t="s">
+        <v>484</v>
+      </c>
+      <c r="L67" t="s">
+        <v>485</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>486</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>488</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>489</v>
+      </c>
+      <c r="J68" t="s">
+        <v>490</v>
+      </c>
+      <c r="K68" t="s">
+        <v>491</v>
+      </c>
+      <c r="L68" t="s">
+        <v>492</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>493</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>495</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>496</v>
+      </c>
+      <c r="J69" t="s">
+        <v>497</v>
+      </c>
+      <c r="K69" t="s">
+        <v>296</v>
+      </c>
+      <c r="L69" t="s">
+        <v>498</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>499</v>
+      </c>
+      <c r="O69" t="s">
+        <v>97</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>500</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>501</v>
+      </c>
+      <c r="J70" t="s">
+        <v>502</v>
+      </c>
+      <c r="K70" t="s">
+        <v>503</v>
+      </c>
+      <c r="L70" t="s">
+        <v>504</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>505</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10217</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>507</v>
+      </c>
+      <c r="J71" t="s">
+        <v>508</v>
+      </c>
+      <c r="K71" t="s">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s">
+        <v>510</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>511</v>
+      </c>
+      <c r="O71" t="s">
+        <v>104</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
